--- a/database/dicionario/dicionario_de_dados.xltx.xlsx
+++ b/database/dicionario/dicionario_de_dados.xltx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.107.144.10\portalautocenter\database\dicionario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\site\Portal-Auto-Center\database\dicionario\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0587AB0F-54A6-4CC0-8827-E23E64C0DCAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dicionario_de_dados" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="264">
   <si>
     <t>id_cliente</t>
   </si>
@@ -780,9 +781,6 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>NÃO</t>
-  </si>
-  <si>
     <t>valor_abastecimento</t>
   </si>
   <si>
@@ -799,12 +797,27 @@
   </si>
   <si>
     <t>log_controle_abastecimento</t>
+  </si>
+  <si>
+    <t>Tabela: tbl_sobre_empresa-</t>
+  </si>
+  <si>
+    <t>id_sobre_empresa</t>
+  </si>
+  <si>
+    <t>VARCHAR(480)</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>VARCHAR(2800)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1417,7 +1430,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1438,6 +1451,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,32 +1497,11 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,10 +1535,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1838,11 +1858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G448"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G460"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A427" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I447" sqref="I447"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,26 +1877,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2120,26 +2140,26 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2231,26 +2251,26 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2441,26 +2461,26 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2685,26 +2705,26 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2777,26 +2797,26 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2869,26 +2889,26 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -3075,26 +3095,26 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3167,26 +3187,26 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3339,26 +3359,26 @@
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3663,26 +3683,26 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="10"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="20"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3755,26 +3775,26 @@
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="20"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -3925,26 +3945,26 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="10"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="20"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4017,26 +4037,26 @@
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="20"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4128,26 +4148,26 @@
       <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="10"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="20"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="17"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -4279,26 +4299,26 @@
       <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="10"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="20"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="17"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -4371,26 +4391,26 @@
       <c r="G150" s="2"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="10"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="17"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
@@ -4503,26 +4523,26 @@
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="10"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="20"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="17"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
@@ -4614,26 +4634,26 @@
       <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="10"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="20"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="17"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
@@ -4706,26 +4726,26 @@
       <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="10"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="20"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B173" s="15"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="17"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
@@ -4817,26 +4837,26 @@
       <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="10"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="20"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="17"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
@@ -4928,26 +4948,26 @@
       <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="9"/>
-      <c r="G186" s="10"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="20"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="17"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
@@ -5020,26 +5040,26 @@
       <c r="G191" s="2"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="10"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="20"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="14" t="s">
+      <c r="A193" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B193" s="15"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="17"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
@@ -5112,26 +5132,26 @@
       <c r="G197" s="2"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="10"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="20"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="17"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
@@ -5223,26 +5243,26 @@
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="10"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="20"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B206" s="15"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="17"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
@@ -5488,26 +5508,26 @@
       <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="10"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="20"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B221" s="15"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="17"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
@@ -5656,26 +5676,26 @@
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
-      <c r="G230" s="10"/>
+      <c r="B230" s="19"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="20"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="14" t="s">
+      <c r="A231" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B231" s="15"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="17"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
@@ -5748,26 +5768,26 @@
       <c r="G235" s="2"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="8" t="s">
+      <c r="A236" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="10"/>
+      <c r="B236" s="19"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="20"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B237" s="15"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="16"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="17"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
@@ -5859,26 +5879,26 @@
       <c r="G242" s="2"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
+      <c r="A243" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
-      <c r="E243" s="9"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="10"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="19"/>
+      <c r="E243" s="19"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="20"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="14" t="s">
+      <c r="A244" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B244" s="15"/>
-      <c r="C244" s="15"/>
-      <c r="D244" s="15"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="16"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="17"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
@@ -6010,26 +6030,26 @@
       <c r="G251" s="2"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
-      <c r="E252" s="9"/>
-      <c r="F252" s="9"/>
-      <c r="G252" s="10"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="20"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B253" s="15"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="15"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="16"/>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="17"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
@@ -6140,26 +6160,26 @@
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9"/>
-      <c r="E260" s="9"/>
-      <c r="F260" s="9"/>
-      <c r="G260" s="10"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="20"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B261" s="15"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="17"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
@@ -6289,26 +6309,26 @@
       <c r="G268" s="2"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="8" t="s">
+      <c r="A269" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="10"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="19"/>
+      <c r="G269" s="20"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="14" t="s">
+      <c r="A270" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B270" s="15"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="15"/>
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="16"/>
+      <c r="B270" s="16"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="16"/>
+      <c r="F270" s="16"/>
+      <c r="G270" s="17"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
@@ -6421,26 +6441,26 @@
       <c r="G276" s="2"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="10"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="19"/>
+      <c r="G277" s="20"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
+      <c r="A278" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B278" s="15"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="15"/>
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="16"/>
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="17"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
@@ -6551,26 +6571,26 @@
       <c r="G284" s="2"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="s">
+      <c r="A285" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="9"/>
-      <c r="E285" s="9"/>
-      <c r="F285" s="9"/>
-      <c r="G285" s="10"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="19"/>
+      <c r="G285" s="20"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="14" t="s">
+      <c r="A286" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B286" s="15"/>
-      <c r="C286" s="15"/>
-      <c r="D286" s="15"/>
-      <c r="E286" s="15"/>
-      <c r="F286" s="15"/>
-      <c r="G286" s="16"/>
+      <c r="B286" s="16"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="17"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
@@ -6890,26 +6910,26 @@
       <c r="G303" s="2"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9"/>
-      <c r="E304" s="9"/>
-      <c r="F304" s="9"/>
-      <c r="G304" s="10"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
+      <c r="E304" s="19"/>
+      <c r="F304" s="19"/>
+      <c r="G304" s="20"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B305" s="15"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="15"/>
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="16"/>
+      <c r="B305" s="16"/>
+      <c r="C305" s="16"/>
+      <c r="D305" s="16"/>
+      <c r="E305" s="16"/>
+      <c r="F305" s="16"/>
+      <c r="G305" s="17"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
@@ -7024,26 +7044,26 @@
       <c r="G311" s="2"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="8" t="s">
+      <c r="A312" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="9"/>
-      <c r="E312" s="9"/>
-      <c r="F312" s="9"/>
-      <c r="G312" s="10"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="19"/>
+      <c r="E312" s="19"/>
+      <c r="F312" s="19"/>
+      <c r="G312" s="20"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="14" t="s">
+      <c r="A313" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="15"/>
-      <c r="C313" s="15"/>
-      <c r="D313" s="15"/>
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="16"/>
+      <c r="B313" s="16"/>
+      <c r="C313" s="16"/>
+      <c r="D313" s="16"/>
+      <c r="E313" s="16"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="17"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
@@ -7116,26 +7136,26 @@
       <c r="G317" s="2"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="8" t="s">
+      <c r="A318" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="9"/>
-      <c r="E318" s="9"/>
-      <c r="F318" s="9"/>
-      <c r="G318" s="10"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="19"/>
+      <c r="E318" s="19"/>
+      <c r="F318" s="19"/>
+      <c r="G318" s="20"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B319" s="15"/>
-      <c r="C319" s="15"/>
-      <c r="D319" s="15"/>
-      <c r="E319" s="15"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="16"/>
+      <c r="B319" s="16"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16"/>
+      <c r="G319" s="17"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
@@ -7267,26 +7287,26 @@
       <c r="G326" s="2"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="8" t="s">
+      <c r="A327" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="9"/>
-      <c r="E327" s="9"/>
-      <c r="F327" s="9"/>
-      <c r="G327" s="10"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
+      <c r="F327" s="19"/>
+      <c r="G327" s="20"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="14" t="s">
+      <c r="A328" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B328" s="15"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="15"/>
-      <c r="E328" s="15"/>
-      <c r="F328" s="15"/>
-      <c r="G328" s="16"/>
+      <c r="B328" s="16"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="17"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
@@ -7359,26 +7379,26 @@
       <c r="G332" s="2"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="8" t="s">
+      <c r="A333" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
-      <c r="G333" s="10"/>
+      <c r="B333" s="19"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="20"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="14" t="s">
+      <c r="A334" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B334" s="15"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="15"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="16"/>
+      <c r="B334" s="16"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="17"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
@@ -7531,26 +7551,26 @@
       <c r="G342" s="2"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="9"/>
-      <c r="E343" s="9"/>
-      <c r="F343" s="9"/>
-      <c r="G343" s="10"/>
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="19"/>
+      <c r="E343" s="19"/>
+      <c r="F343" s="19"/>
+      <c r="G343" s="20"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B344" s="15"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="15"/>
-      <c r="E344" s="15"/>
-      <c r="F344" s="15"/>
-      <c r="G344" s="16"/>
+      <c r="B344" s="16"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="17"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
@@ -7663,26 +7683,26 @@
       <c r="G350" s="2"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="8" t="s">
+      <c r="A351" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
-      <c r="D351" s="9"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="9"/>
-      <c r="G351" s="10"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
+      <c r="D351" s="19"/>
+      <c r="E351" s="19"/>
+      <c r="F351" s="19"/>
+      <c r="G351" s="20"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="16"/>
+      <c r="B352" s="16"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="17"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
@@ -7833,26 +7853,26 @@
       <c r="G360" s="2"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="8" t="s">
+      <c r="A361" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B361" s="9"/>
-      <c r="C361" s="9"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="9"/>
-      <c r="G361" s="10"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="19"/>
+      <c r="D361" s="19"/>
+      <c r="E361" s="19"/>
+      <c r="F361" s="19"/>
+      <c r="G361" s="20"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B362" s="15"/>
-      <c r="C362" s="15"/>
-      <c r="D362" s="15"/>
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="16"/>
+      <c r="B362" s="16"/>
+      <c r="C362" s="16"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
+      <c r="G362" s="17"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
@@ -7965,26 +7985,26 @@
       <c r="G368" s="2"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="11" t="s">
+      <c r="A369" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B369" s="12"/>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
-      <c r="E369" s="12"/>
-      <c r="F369" s="12"/>
-      <c r="G369" s="13"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="22"/>
+      <c r="D369" s="22"/>
+      <c r="E369" s="22"/>
+      <c r="F369" s="22"/>
+      <c r="G369" s="23"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="16"/>
+      <c r="B370" s="16"/>
+      <c r="C370" s="16"/>
+      <c r="D370" s="16"/>
+      <c r="E370" s="16"/>
+      <c r="F370" s="16"/>
+      <c r="G370" s="17"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
@@ -8076,26 +8096,26 @@
       <c r="G375" s="2"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="11" t="s">
+      <c r="A376" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B376" s="12"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
-      <c r="F376" s="12"/>
-      <c r="G376" s="13"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="22"/>
+      <c r="D376" s="22"/>
+      <c r="E376" s="22"/>
+      <c r="F376" s="22"/>
+      <c r="G376" s="23"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B377" s="15"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="15"/>
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="16"/>
+      <c r="B377" s="16"/>
+      <c r="C377" s="16"/>
+      <c r="D377" s="16"/>
+      <c r="E377" s="16"/>
+      <c r="F377" s="16"/>
+      <c r="G377" s="17"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
@@ -8177,82 +8197,84 @@
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
     </row>
-    <row r="382" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="3"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="8" t="s">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F382" s="5">
+        <v>1</v>
+      </c>
+      <c r="G382" s="5"/>
+    </row>
+    <row r="383" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="3"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B383" s="9"/>
-      <c r="C383" s="9"/>
-      <c r="D383" s="9"/>
-      <c r="E383" s="9"/>
-      <c r="F383" s="9"/>
-      <c r="G383" s="10"/>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="14" t="s">
+      <c r="B384" s="19"/>
+      <c r="C384" s="19"/>
+      <c r="D384" s="19"/>
+      <c r="E384" s="19"/>
+      <c r="F384" s="19"/>
+      <c r="G384" s="20"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B384" s="15"/>
-      <c r="C384" s="15"/>
-      <c r="D384" s="15"/>
-      <c r="E384" s="15"/>
-      <c r="F384" s="15"/>
-      <c r="G384" s="16"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
+      <c r="B385" s="16"/>
+      <c r="C385" s="16"/>
+      <c r="D385" s="16"/>
+      <c r="E385" s="16"/>
+      <c r="F385" s="16"/>
+      <c r="G385" s="17"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B386" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C385" s="4" t="s">
+      <c r="C386" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D385" s="4" t="s">
+      <c r="D386" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E385" s="4" t="s">
+      <c r="E386" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F385" s="4" t="s">
+      <c r="F386" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G385" s="4" t="s">
+      <c r="G386" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B386" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F386" s="5"/>
-      <c r="G386" s="5"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>1</v>
@@ -8261,20 +8283,20 @@
         <v>244</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F387" s="5"/>
       <c r="G387" s="5"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>244</v>
@@ -8283,87 +8305,87 @@
         <v>249</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
     </row>
-    <row r="389" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="3"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="8" t="s">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+    </row>
+    <row r="390" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="3"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B390" s="9"/>
-      <c r="C390" s="9"/>
-      <c r="D390" s="9"/>
-      <c r="E390" s="9"/>
-      <c r="F390" s="9"/>
-      <c r="G390" s="10"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="14" t="s">
+      <c r="B391" s="19"/>
+      <c r="C391" s="19"/>
+      <c r="D391" s="19"/>
+      <c r="E391" s="19"/>
+      <c r="F391" s="19"/>
+      <c r="G391" s="20"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B391" s="15"/>
-      <c r="C391" s="15"/>
-      <c r="D391" s="15"/>
-      <c r="E391" s="15"/>
-      <c r="F391" s="15"/>
-      <c r="G391" s="16"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="4" t="s">
+      <c r="B392" s="16"/>
+      <c r="C392" s="16"/>
+      <c r="D392" s="16"/>
+      <c r="E392" s="16"/>
+      <c r="F392" s="16"/>
+      <c r="G392" s="17"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B393" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C392" s="4" t="s">
+      <c r="C393" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D392" s="4" t="s">
+      <c r="D393" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E392" s="4" t="s">
+      <c r="E393" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F392" s="4" t="s">
+      <c r="F393" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G392" s="4" t="s">
+      <c r="G393" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B393" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D393" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E393" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F393" s="5"/>
-      <c r="G393" s="5"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>1</v>
@@ -8372,20 +8394,20 @@
         <v>244</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F394" s="5"/>
       <c r="G394" s="5"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>244</v>
@@ -8394,117 +8416,117 @@
         <v>249</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="B397" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C396" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E396" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F396" s="5" t="s">
+      <c r="C397" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F397" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G396" s="5"/>
-    </row>
-    <row r="397" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="3"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="8" t="s">
+      <c r="G397" s="5"/>
+    </row>
+    <row r="398" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="3"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B398" s="9"/>
-      <c r="C398" s="9"/>
-      <c r="D398" s="9"/>
-      <c r="E398" s="9"/>
-      <c r="F398" s="9"/>
-      <c r="G398" s="10"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="14" t="s">
+      <c r="B399" s="19"/>
+      <c r="C399" s="19"/>
+      <c r="D399" s="19"/>
+      <c r="E399" s="19"/>
+      <c r="F399" s="19"/>
+      <c r="G399" s="20"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B399" s="15"/>
-      <c r="C399" s="15"/>
-      <c r="D399" s="15"/>
-      <c r="E399" s="15"/>
-      <c r="F399" s="15"/>
-      <c r="G399" s="16"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="4" t="s">
+      <c r="B400" s="16"/>
+      <c r="C400" s="16"/>
+      <c r="D400" s="16"/>
+      <c r="E400" s="16"/>
+      <c r="F400" s="16"/>
+      <c r="G400" s="17"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B401" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C400" s="4" t="s">
+      <c r="C401" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D400" s="4" t="s">
+      <c r="D401" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E400" s="4" t="s">
+      <c r="E401" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F400" s="4" t="s">
+      <c r="F401" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G400" s="4" t="s">
+      <c r="G401" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C401" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D401" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E401" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F401" s="5"/>
-      <c r="G401" s="5"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>249</v>
@@ -8512,82 +8534,82 @@
       <c r="F402" s="5"/>
       <c r="G402" s="5"/>
     </row>
-    <row r="403" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="3"/>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="8" t="s">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+    </row>
+    <row r="404" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="3"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B404" s="9"/>
-      <c r="C404" s="9"/>
-      <c r="D404" s="9"/>
-      <c r="E404" s="9"/>
-      <c r="F404" s="9"/>
-      <c r="G404" s="10"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="14" t="s">
+      <c r="B405" s="19"/>
+      <c r="C405" s="19"/>
+      <c r="D405" s="19"/>
+      <c r="E405" s="19"/>
+      <c r="F405" s="19"/>
+      <c r="G405" s="20"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B405" s="15"/>
-      <c r="C405" s="15"/>
-      <c r="D405" s="15"/>
-      <c r="E405" s="15"/>
-      <c r="F405" s="15"/>
-      <c r="G405" s="16"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="4" t="s">
+      <c r="B406" s="16"/>
+      <c r="C406" s="16"/>
+      <c r="D406" s="16"/>
+      <c r="E406" s="16"/>
+      <c r="F406" s="16"/>
+      <c r="G406" s="17"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B407" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C407" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D406" s="4" t="s">
+      <c r="D407" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E406" s="4" t="s">
+      <c r="E407" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F406" s="4" t="s">
+      <c r="F407" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G406" s="4" t="s">
+      <c r="G407" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B407" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C407" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D407" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E407" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F407" s="5"/>
-      <c r="G407" s="5"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>1</v>
@@ -8596,17 +8618,17 @@
         <v>244</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E408" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F408" s="5"/>
       <c r="G408" s="5"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>1</v>
@@ -8623,91 +8645,91 @@
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
     </row>
-    <row r="410" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="3"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="F410" s="2"/>
-      <c r="G410" s="2"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="8" t="s">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+    </row>
+    <row r="411" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="3"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B411" s="9"/>
-      <c r="C411" s="9"/>
-      <c r="D411" s="9"/>
-      <c r="E411" s="9"/>
-      <c r="F411" s="9"/>
-      <c r="G411" s="10"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="14" t="s">
+      <c r="B412" s="19"/>
+      <c r="C412" s="19"/>
+      <c r="D412" s="19"/>
+      <c r="E412" s="19"/>
+      <c r="F412" s="19"/>
+      <c r="G412" s="20"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B412" s="15"/>
-      <c r="C412" s="15"/>
-      <c r="D412" s="15"/>
-      <c r="E412" s="15"/>
-      <c r="F412" s="15"/>
-      <c r="G412" s="16"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
+      <c r="B413" s="16"/>
+      <c r="C413" s="16"/>
+      <c r="D413" s="16"/>
+      <c r="E413" s="16"/>
+      <c r="F413" s="16"/>
+      <c r="G413" s="17"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B414" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C414" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D413" s="4" t="s">
+      <c r="D414" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E413" s="4" t="s">
+      <c r="E414" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F413" s="4" t="s">
+      <c r="F414" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G413" s="4" t="s">
+      <c r="G414" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D414" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E414" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F414" s="5"/>
-      <c r="G414" s="5"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E415" s="5" t="s">
         <v>249</v>
@@ -8715,82 +8737,82 @@
       <c r="F415" s="5"/>
       <c r="G415" s="5"/>
     </row>
-    <row r="416" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="3"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="8" t="s">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+    </row>
+    <row r="417" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="3"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B417" s="9"/>
-      <c r="C417" s="9"/>
-      <c r="D417" s="9"/>
-      <c r="E417" s="9"/>
-      <c r="F417" s="9"/>
-      <c r="G417" s="10"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="14" t="s">
+      <c r="B418" s="19"/>
+      <c r="C418" s="19"/>
+      <c r="D418" s="19"/>
+      <c r="E418" s="19"/>
+      <c r="F418" s="19"/>
+      <c r="G418" s="20"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B418" s="15"/>
-      <c r="C418" s="15"/>
-      <c r="D418" s="15"/>
-      <c r="E418" s="15"/>
-      <c r="F418" s="15"/>
-      <c r="G418" s="16"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="4" t="s">
+      <c r="B419" s="16"/>
+      <c r="C419" s="16"/>
+      <c r="D419" s="16"/>
+      <c r="E419" s="16"/>
+      <c r="F419" s="16"/>
+      <c r="G419" s="17"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B420" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C419" s="4" t="s">
+      <c r="C420" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D419" s="4" t="s">
+      <c r="D420" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E419" s="4" t="s">
+      <c r="E420" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F419" s="4" t="s">
+      <c r="F420" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G419" s="4" t="s">
+      <c r="G420" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D420" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E420" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F420" s="5"/>
-      <c r="G420" s="5"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>1</v>
@@ -8799,20 +8821,20 @@
         <v>244</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F421" s="5"/>
       <c r="G421" s="5"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>244</v>
@@ -8821,108 +8843,108 @@
         <v>249</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="B424" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C423" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D423" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E423" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F423" s="5">
+      <c r="C424" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F424" s="5">
         <v>0</v>
       </c>
-      <c r="G423" s="5"/>
-    </row>
-    <row r="424" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="3"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="8" t="s">
+      <c r="G424" s="5"/>
+    </row>
+    <row r="425" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="3"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B425" s="9"/>
-      <c r="C425" s="9"/>
-      <c r="D425" s="9"/>
-      <c r="E425" s="9"/>
-      <c r="F425" s="9"/>
-      <c r="G425" s="10"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="14" t="s">
+      <c r="B426" s="19"/>
+      <c r="C426" s="19"/>
+      <c r="D426" s="19"/>
+      <c r="E426" s="19"/>
+      <c r="F426" s="19"/>
+      <c r="G426" s="20"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B426" s="15"/>
-      <c r="C426" s="15"/>
-      <c r="D426" s="15"/>
-      <c r="E426" s="15"/>
-      <c r="F426" s="15"/>
-      <c r="G426" s="16"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="4" t="s">
+      <c r="B427" s="16"/>
+      <c r="C427" s="16"/>
+      <c r="D427" s="16"/>
+      <c r="E427" s="16"/>
+      <c r="F427" s="16"/>
+      <c r="G427" s="17"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B427" s="4" t="s">
+      <c r="B428" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C427" s="4" t="s">
+      <c r="C428" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D427" s="4" t="s">
+      <c r="D428" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E427" s="4" t="s">
+      <c r="E428" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F427" s="4" t="s">
+      <c r="F428" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G427" s="4" t="s">
+      <c r="G428" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C428" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D428" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E428" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F428" s="5"/>
-      <c r="G428" s="5"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>1</v>
@@ -8931,20 +8953,20 @@
         <v>244</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F429" s="5"/>
       <c r="G429" s="5"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>244</v>
@@ -8953,117 +8975,117 @@
         <v>249</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B431" s="5" t="s">
+      <c r="B432" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C431" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D431" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E431" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F431" s="5">
+      <c r="C432" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F432" s="5">
         <v>0</v>
       </c>
-      <c r="G431" s="5"/>
-    </row>
-    <row r="432" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="3"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="8" t="s">
+      <c r="G432" s="5"/>
+    </row>
+    <row r="433" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="3"/>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B433" s="9"/>
-      <c r="C433" s="9"/>
-      <c r="D433" s="9"/>
-      <c r="E433" s="9"/>
-      <c r="F433" s="9"/>
-      <c r="G433" s="10"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="14" t="s">
+      <c r="B434" s="19"/>
+      <c r="C434" s="19"/>
+      <c r="D434" s="19"/>
+      <c r="E434" s="19"/>
+      <c r="F434" s="19"/>
+      <c r="G434" s="20"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B434" s="15"/>
-      <c r="C434" s="15"/>
-      <c r="D434" s="15"/>
-      <c r="E434" s="15"/>
-      <c r="F434" s="15"/>
-      <c r="G434" s="16"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
+      <c r="B435" s="16"/>
+      <c r="C435" s="16"/>
+      <c r="D435" s="16"/>
+      <c r="E435" s="16"/>
+      <c r="F435" s="16"/>
+      <c r="G435" s="17"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B436" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C435" s="4" t="s">
+      <c r="C436" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D435" s="4" t="s">
+      <c r="D436" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E435" s="4" t="s">
+      <c r="E436" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F435" s="4" t="s">
+      <c r="F436" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G435" s="4" t="s">
+      <c r="G436" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B436" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C436" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D436" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E436" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F436" s="5"/>
-      <c r="G436" s="5"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>249</v>
@@ -9071,236 +9093,381 @@
       <c r="F437" s="5"/>
       <c r="G437" s="5"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="17" t="s">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B439" s="19"/>
-      <c r="C439" s="19"/>
-      <c r="D439" s="19"/>
-      <c r="E439" s="19"/>
-      <c r="F439" s="19"/>
-      <c r="G439" s="19"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="17" t="s">
+      <c r="B440" s="13"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13"/>
+      <c r="F440" s="13"/>
+      <c r="G440" s="13"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B440" s="17"/>
-      <c r="C440" s="17"/>
-      <c r="D440" s="17"/>
-      <c r="E440" s="17"/>
-      <c r="F440" s="17"/>
-      <c r="G440" s="17"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="20" t="s">
+      <c r="B441" s="12"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
+      <c r="F441" s="12"/>
+      <c r="G441" s="12"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B441" s="20" t="s">
+      <c r="B442" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C441" s="20" t="s">
+      <c r="C442" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D441" s="20" t="s">
+      <c r="D442" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E441" s="20" t="s">
+      <c r="E442" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F441" s="20" t="s">
+      <c r="F442" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G441" s="20" t="s">
+      <c r="G442" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="21" t="s">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B442" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C442" s="21" t="s">
+      <c r="B443" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D442" s="21" t="s">
+      <c r="D443" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E442" s="21" t="s">
+      <c r="E443" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F443" s="10"/>
+      <c r="G443" s="10"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B444" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E444" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F444" s="10"/>
+      <c r="G444" s="10"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D445" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E445" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F445" s="10"/>
+      <c r="G445" s="10"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F442" s="22"/>
-      <c r="G442" s="22"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B443" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C443" s="21" t="s">
+      <c r="B446" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C446" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D443" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E443" s="21" t="s">
+      <c r="D446" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E446" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F446" s="10"/>
+      <c r="G446" s="10"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B447" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C447" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F443" s="22"/>
-      <c r="G443" s="22"/>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B444" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C444" s="21" t="s">
+      <c r="D447" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E447" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F447" s="10"/>
+      <c r="G447" s="10"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B448" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C448" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D444" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E444" s="21" t="s">
+      <c r="D448" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E448" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F448" s="10"/>
+      <c r="G448" s="10"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E449" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G449" s="10"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B451" s="13"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="13"/>
+      <c r="F451" s="13"/>
+      <c r="G451" s="13"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B452" s="12"/>
+      <c r="C452" s="12"/>
+      <c r="D452" s="12"/>
+      <c r="E452" s="12"/>
+      <c r="F452" s="12"/>
+      <c r="G452" s="12"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E453" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F453" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G453" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B454" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F444" s="22"/>
-      <c r="G444" s="22"/>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B445" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C445" s="21" t="s">
+      <c r="D454" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D445" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E445" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F445" s="22"/>
-      <c r="G445" s="22"/>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B446" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C446" s="23" t="s">
+      <c r="E454" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F454" s="10"/>
+      <c r="G454" s="10"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C455" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D446" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E446" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F446" s="22"/>
-      <c r="G446" s="22"/>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B447" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C447" s="21" t="s">
+      <c r="D455" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E455" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F455" s="10"/>
+      <c r="G455" s="10"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B456" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C456" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D447" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E447" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F447" s="22"/>
-      <c r="G447" s="22"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B448" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C448" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D448" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E448" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F448" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G448" s="22"/>
+      <c r="D456" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E456" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F456" s="10"/>
+      <c r="G456" s="10"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="24"/>
+      <c r="B457" s="24"/>
+      <c r="C457" s="24"/>
+      <c r="D457" s="24"/>
+      <c r="E457" s="24"/>
+      <c r="F457" s="25"/>
+      <c r="G457" s="25"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="24"/>
+      <c r="B458" s="24"/>
+      <c r="C458" s="26"/>
+      <c r="D458" s="24"/>
+      <c r="E458" s="24"/>
+      <c r="F458" s="25"/>
+      <c r="G458" s="25"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="24"/>
+      <c r="B459" s="24"/>
+      <c r="C459" s="24"/>
+      <c r="D459" s="24"/>
+      <c r="E459" s="24"/>
+      <c r="F459" s="25"/>
+      <c r="G459" s="25"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="24"/>
+      <c r="B460" s="24"/>
+      <c r="C460" s="24"/>
+      <c r="D460" s="24"/>
+      <c r="E460" s="24"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="A439:G439"/>
-    <mergeCell ref="A440:G440"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A130:G130"/>
+  <mergeCells count="108">
+    <mergeCell ref="A451:G451"/>
+    <mergeCell ref="A452:G452"/>
+    <mergeCell ref="A412:G412"/>
     <mergeCell ref="A434:G434"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A370:G370"/>
-    <mergeCell ref="A377:G377"/>
+    <mergeCell ref="A418:G418"/>
+    <mergeCell ref="A426:G426"/>
+    <mergeCell ref="A369:G369"/>
+    <mergeCell ref="A376:G376"/>
     <mergeCell ref="A384:G384"/>
     <mergeCell ref="A391:G391"/>
     <mergeCell ref="A399:G399"/>
-    <mergeCell ref="A405:G405"/>
-    <mergeCell ref="A404:G404"/>
-    <mergeCell ref="A319:G319"/>
-    <mergeCell ref="A328:G328"/>
-    <mergeCell ref="A334:G334"/>
-    <mergeCell ref="A344:G344"/>
-    <mergeCell ref="A352:G352"/>
-    <mergeCell ref="A362:G362"/>
-    <mergeCell ref="A343:G343"/>
-    <mergeCell ref="A361:G361"/>
+    <mergeCell ref="A413:G413"/>
+    <mergeCell ref="A419:G419"/>
+    <mergeCell ref="A427:G427"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A269:G269"/>
+    <mergeCell ref="A277:G277"/>
+    <mergeCell ref="A304:G304"/>
+    <mergeCell ref="A333:G333"/>
+    <mergeCell ref="A327:G327"/>
+    <mergeCell ref="A312:G312"/>
+    <mergeCell ref="A318:G318"/>
+    <mergeCell ref="A205:G205"/>
+    <mergeCell ref="A261:G261"/>
+    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A286:G286"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A313:G313"/>
+    <mergeCell ref="A285:G285"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A253:G253"/>
+    <mergeCell ref="A252:G252"/>
     <mergeCell ref="A351:G351"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A113:G113"/>
@@ -9325,40 +9492,54 @@
     <mergeCell ref="A167:G167"/>
     <mergeCell ref="A173:G173"/>
     <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A187:G187"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A199:G199"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A269:G269"/>
-    <mergeCell ref="A277:G277"/>
-    <mergeCell ref="A304:G304"/>
-    <mergeCell ref="A333:G333"/>
-    <mergeCell ref="A327:G327"/>
-    <mergeCell ref="A312:G312"/>
-    <mergeCell ref="A318:G318"/>
-    <mergeCell ref="A205:G205"/>
-    <mergeCell ref="A261:G261"/>
-    <mergeCell ref="A270:G270"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A286:G286"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A313:G313"/>
-    <mergeCell ref="A285:G285"/>
-    <mergeCell ref="A244:G244"/>
-    <mergeCell ref="A253:G253"/>
-    <mergeCell ref="A252:G252"/>
-    <mergeCell ref="A411:G411"/>
-    <mergeCell ref="A433:G433"/>
-    <mergeCell ref="A417:G417"/>
-    <mergeCell ref="A425:G425"/>
-    <mergeCell ref="A369:G369"/>
-    <mergeCell ref="A376:G376"/>
-    <mergeCell ref="A383:G383"/>
-    <mergeCell ref="A390:G390"/>
-    <mergeCell ref="A398:G398"/>
-    <mergeCell ref="A412:G412"/>
-    <mergeCell ref="A418:G418"/>
-    <mergeCell ref="A426:G426"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A435:G435"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A370:G370"/>
+    <mergeCell ref="A377:G377"/>
+    <mergeCell ref="A385:G385"/>
+    <mergeCell ref="A392:G392"/>
+    <mergeCell ref="A400:G400"/>
+    <mergeCell ref="A406:G406"/>
+    <mergeCell ref="A405:G405"/>
+    <mergeCell ref="A319:G319"/>
+    <mergeCell ref="A328:G328"/>
+    <mergeCell ref="A334:G334"/>
+    <mergeCell ref="A344:G344"/>
+    <mergeCell ref="A352:G352"/>
+    <mergeCell ref="A362:G362"/>
+    <mergeCell ref="A343:G343"/>
+    <mergeCell ref="A361:G361"/>
+    <mergeCell ref="A440:G440"/>
+    <mergeCell ref="A441:G441"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A89:G89"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/dicionario/dicionario_de_dados.xltx.xlsx
+++ b/database/dicionario/dicionario_de_dados.xltx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\site\Portal-Auto-Center\database\dicionario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inf4m\Portal-Auto-Center\database\dicionario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0587AB0F-54A6-4CC0-8827-E23E64C0DCAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="dicionario_de_dados" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="265">
   <si>
     <t>id_cliente</t>
   </si>
@@ -812,12 +811,15 @@
   </si>
   <si>
     <t>VARCHAR(2800)</t>
+  </si>
+  <si>
+    <t>VARCHAR(2400)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1461,23 +1463,18 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1497,12 +1494,17 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1535,10 +1537,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1858,11 +1860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G460"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,26 +1879,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2140,26 +2142,26 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2251,26 +2253,26 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2461,26 +2463,26 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2705,26 +2707,26 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2797,26 +2799,26 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2889,26 +2891,26 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -3095,26 +3097,26 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3187,26 +3189,26 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3359,26 +3361,26 @@
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="19"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3683,26 +3685,26 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="20"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="19"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="25"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3775,26 +3777,26 @@
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="20"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="19"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="17"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="25"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -3945,26 +3947,26 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="20"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="19"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="17"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="25"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4037,26 +4039,26 @@
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="20"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="19"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="17"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="25"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4138,82 +4140,82 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="18" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="20"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="17"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="25"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B139" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D139" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F139" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G139" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>1</v>
@@ -4222,17 +4224,17 @@
         <v>244</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>1</v>
@@ -4251,32 +4253,32 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>249</v>
@@ -4284,96 +4286,96 @@
       <c r="E143" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="20"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="19"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="17"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="25"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D148" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F148" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G148" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>249</v>
@@ -4381,82 +4383,82 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="20"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="19"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="17"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="25"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B154" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D154" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F154" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="G154" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>1</v>
@@ -4465,17 +4467,17 @@
         <v>244</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>1</v>
@@ -4494,101 +4496,101 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B158" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F157" s="5" t="s">
+      <c r="C158" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="18" t="s">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="20"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="15" t="s">
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="19"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="17"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="25"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G162" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>1</v>
@@ -4597,17 +4599,17 @@
         <v>244</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>1</v>
@@ -4624,91 +4626,91 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="20"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="15" t="s">
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="19"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="17"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="B168" s="24"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="25"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B169" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E169" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F169" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G168" s="4" t="s">
+      <c r="G169" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>249</v>
@@ -4716,82 +4718,82 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="20"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="15" t="s">
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="17"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="25"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B175" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E175" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F175" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="G175" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>1</v>
@@ -4800,20 +4802,20 @@
         <v>244</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>244</v>
@@ -4822,87 +4824,87 @@
         <v>249</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+    </row>
+    <row r="179" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="20"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="15" t="s">
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="19"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B180" s="16"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="17"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="25"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B182" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D182" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F182" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G182" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>1</v>
@@ -4911,17 +4913,17 @@
         <v>244</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>1</v>
@@ -4938,91 +4940,91 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="18" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="20"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="15" t="s">
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="19"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="17"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="25"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B189" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C189" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D189" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="E189" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F189" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G188" s="4" t="s">
+      <c r="G189" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>249</v>
@@ -5030,91 +5032,91 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="18" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="20"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="15" t="s">
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="19"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="17"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="25"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B195" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D195" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E195" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F195" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G194" s="4" t="s">
+      <c r="G195" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>249</v>
@@ -5122,82 +5124,82 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="3"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="18" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="20"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="15" t="s">
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="19"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B199" s="16"/>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="17"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="25"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B201" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C201" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D201" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E200" s="4" t="s">
+      <c r="E201" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="F201" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G200" s="4" t="s">
+      <c r="G201" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>1</v>
@@ -5206,17 +5208,17 @@
         <v>244</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>1</v>
@@ -5233,82 +5235,82 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+    </row>
+    <row r="205" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="20"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="15" t="s">
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="19"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B206" s="16"/>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="17"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="B207" s="24"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="25"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B208" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C208" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D208" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F207" s="4" t="s">
+      <c r="F208" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G207" s="4" t="s">
+      <c r="G208" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>1</v>
@@ -5317,17 +5319,17 @@
         <v>244</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>1</v>
@@ -5346,7 +5348,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>1</v>
@@ -5360,14 +5362,12 @@
       <c r="E211" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F211" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>1</v>
@@ -5381,15 +5381,17 @@
       <c r="E212" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F212" s="5"/>
+      <c r="F212" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="G212" s="5"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>244</v>
@@ -5398,17 +5400,17 @@
         <v>249</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>244</v>
@@ -5424,10 +5426,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>244</v>
@@ -5443,10 +5445,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>244</v>
@@ -5462,10 +5464,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>244</v>
@@ -5481,13 +5483,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>249</v>
@@ -5498,91 +5500,91 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="18" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="220" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="20"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="15" t="s">
+      <c r="B221" s="18"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="19"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B221" s="16"/>
-      <c r="C221" s="16"/>
-      <c r="D221" s="16"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="16"/>
-      <c r="G221" s="17"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="B222" s="24"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
+      <c r="F222" s="24"/>
+      <c r="G222" s="25"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C223" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D223" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="E223" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F223" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G222" s="4" t="s">
+      <c r="G223" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>249</v>
@@ -5592,10 +5594,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>244</v>
@@ -5604,17 +5606,17 @@
         <v>249</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>244</v>
@@ -5623,14 +5625,14 @@
         <v>249</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>116</v>
@@ -5649,7 +5651,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>116</v>
@@ -5666,91 +5668,91 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="18" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+    </row>
+    <row r="230" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="20"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="15" t="s">
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="19"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B231" s="16"/>
-      <c r="C231" s="16"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="16"/>
-      <c r="G231" s="17"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="B232" s="24"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="25"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B233" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D233" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E232" s="4" t="s">
+      <c r="E233" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F233" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G232" s="4" t="s">
+      <c r="G233" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>249</v>
@@ -5758,82 +5760,82 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="18" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="20"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="15" t="s">
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="19"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="17"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="B238" s="24"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="25"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B239" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C239" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="D239" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E239" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F238" s="4" t="s">
+      <c r="F239" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G238" s="4" t="s">
+      <c r="G239" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>1</v>
@@ -5842,17 +5844,17 @@
         <v>244</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>1</v>
@@ -5869,82 +5871,82 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="18" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="20"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="15" t="s">
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="19"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B244" s="16"/>
-      <c r="C244" s="16"/>
-      <c r="D244" s="16"/>
-      <c r="E244" s="16"/>
-      <c r="F244" s="16"/>
-      <c r="G244" s="17"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="B245" s="24"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="25"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B246" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C246" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D245" s="4" t="s">
+      <c r="D246" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="E246" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F245" s="4" t="s">
+      <c r="F246" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G245" s="4" t="s">
+      <c r="G246" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>1</v>
@@ -5953,39 +5955,39 @@
         <v>244</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>249</v>
@@ -6001,101 +6003,101 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B251" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F250" s="5" t="s">
+      <c r="C251" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F251" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G250" s="5"/>
-    </row>
-    <row r="251" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="18" t="s">
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="20"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="15" t="s">
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="19"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B253" s="16"/>
-      <c r="C253" s="16"/>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="17"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="B254" s="24"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="24"/>
+      <c r="G254" s="25"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B255" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C255" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D254" s="4" t="s">
+      <c r="D255" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="E255" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F254" s="4" t="s">
+      <c r="F255" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G254" s="4" t="s">
+      <c r="G255" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>1</v>
@@ -6104,17 +6106,17 @@
         <v>244</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>1</v>
@@ -6133,10 +6135,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>244</v>
@@ -6145,87 +6147,87 @@
         <v>249</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="18" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="19"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="19"/>
-      <c r="G260" s="20"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="15" t="s">
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="18"/>
+      <c r="G261" s="19"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B261" s="16"/>
-      <c r="C261" s="16"/>
-      <c r="D261" s="16"/>
-      <c r="E261" s="16"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="17"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="24"/>
+      <c r="F262" s="24"/>
+      <c r="G262" s="25"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B263" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C263" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D262" s="4" t="s">
+      <c r="D263" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="E263" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F262" s="4" t="s">
+      <c r="F263" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G262" s="4" t="s">
+      <c r="G263" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E263" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>1</v>
@@ -6234,17 +6236,17 @@
         <v>244</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>1</v>
@@ -6263,10 +6265,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>244</v>
@@ -6275,17 +6277,17 @@
         <v>249</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>244</v>
@@ -6299,82 +6301,82 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="18" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+    </row>
+    <row r="269" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="20"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="15" t="s">
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="19"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B270" s="16"/>
-      <c r="C270" s="16"/>
-      <c r="D270" s="16"/>
-      <c r="E270" s="16"/>
-      <c r="F270" s="16"/>
-      <c r="G270" s="17"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
+      <c r="B271" s="24"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
+      <c r="F271" s="24"/>
+      <c r="G271" s="25"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B272" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C272" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D271" s="4" t="s">
+      <c r="D272" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E271" s="4" t="s">
+      <c r="E272" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F271" s="4" t="s">
+      <c r="F272" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G271" s="4" t="s">
+      <c r="G272" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F272" s="5"/>
-      <c r="G272" s="5"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>1</v>
@@ -6383,17 +6385,17 @@
         <v>244</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>1</v>
@@ -6412,110 +6414,110 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B276" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F275" s="5" t="s">
+      <c r="C276" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F276" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G275" s="5"/>
-    </row>
-    <row r="276" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="18" t="s">
+      <c r="G276" s="5"/>
+    </row>
+    <row r="277" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="20"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="15" t="s">
+      <c r="B278" s="18"/>
+      <c r="C278" s="18"/>
+      <c r="D278" s="18"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="18"/>
+      <c r="G278" s="19"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B278" s="16"/>
-      <c r="C278" s="16"/>
-      <c r="D278" s="16"/>
-      <c r="E278" s="16"/>
-      <c r="F278" s="16"/>
-      <c r="G278" s="17"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
+      <c r="B279" s="24"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="24"/>
+      <c r="F279" s="24"/>
+      <c r="G279" s="25"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B280" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C280" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D279" s="4" t="s">
+      <c r="D280" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E279" s="4" t="s">
+      <c r="E280" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F279" s="4" t="s">
+      <c r="F280" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G279" s="4" t="s">
+      <c r="G280" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F280" s="5"/>
-      <c r="G280" s="5"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>249</v>
@@ -6525,10 +6527,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>244</v>
@@ -6544,10 +6546,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>244</v>
@@ -6561,91 +6563,91 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="3"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="18" t="s">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+    </row>
+    <row r="285" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="19"/>
-      <c r="G285" s="20"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="15" t="s">
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="18"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="18"/>
+      <c r="G286" s="19"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B286" s="16"/>
-      <c r="C286" s="16"/>
-      <c r="D286" s="16"/>
-      <c r="E286" s="16"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="17"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="B287" s="24"/>
+      <c r="C287" s="24"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="24"/>
+      <c r="F287" s="24"/>
+      <c r="G287" s="25"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B288" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C288" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D287" s="4" t="s">
+      <c r="D288" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E287" s="4" t="s">
+      <c r="E288" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F287" s="4" t="s">
+      <c r="F288" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G287" s="4" t="s">
+      <c r="G288" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F288" s="5"/>
-      <c r="G288" s="5"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>249</v>
@@ -6655,10 +6657,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>244</v>
@@ -6674,10 +6676,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>244</v>
@@ -6693,10 +6695,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>244</v>
@@ -6705,17 +6707,17 @@
         <v>249</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>244</v>
@@ -6724,17 +6726,17 @@
         <v>249</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>244</v>
@@ -6743,17 +6745,17 @@
         <v>249</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>244</v>
@@ -6762,17 +6764,17 @@
         <v>249</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>244</v>
@@ -6788,10 +6790,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>244</v>
@@ -6807,10 +6809,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>244</v>
@@ -6826,10 +6828,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>244</v>
@@ -6845,13 +6847,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>249</v>
@@ -6864,10 +6866,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>249</v>
@@ -6883,10 +6885,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>249</v>
@@ -6900,82 +6902,82 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="18" t="s">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+    </row>
+    <row r="304" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="19"/>
-      <c r="G304" s="20"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="15" t="s">
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="18"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="19"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B305" s="16"/>
-      <c r="C305" s="16"/>
-      <c r="D305" s="16"/>
-      <c r="E305" s="16"/>
-      <c r="F305" s="16"/>
-      <c r="G305" s="17"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="4" t="s">
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
+      <c r="D306" s="24"/>
+      <c r="E306" s="24"/>
+      <c r="F306" s="24"/>
+      <c r="G306" s="25"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B307" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C307" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D306" s="4" t="s">
+      <c r="D307" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E306" s="4" t="s">
+      <c r="E307" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F306" s="4" t="s">
+      <c r="F307" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G306" s="4" t="s">
+      <c r="G307" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E307" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F307" s="5"/>
-      <c r="G307" s="5"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>1</v>
@@ -6984,20 +6986,20 @@
         <v>244</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>244</v>
@@ -7006,119 +7008,119 @@
         <v>249</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F309" s="5">
-        <v>0</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F310" s="5">
+        <v>0</v>
+      </c>
+      <c r="G310" s="5"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="B311" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E310" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F310" s="5" t="s">
+      <c r="C311" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F311" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G310" s="5"/>
-    </row>
-    <row r="311" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="3"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="18" t="s">
+      <c r="G311" s="5"/>
+    </row>
+    <row r="312" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="19"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="19"/>
-      <c r="G312" s="20"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="15" t="s">
+      <c r="B313" s="18"/>
+      <c r="C313" s="18"/>
+      <c r="D313" s="18"/>
+      <c r="E313" s="18"/>
+      <c r="F313" s="18"/>
+      <c r="G313" s="19"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
-      <c r="D313" s="16"/>
-      <c r="E313" s="16"/>
-      <c r="F313" s="16"/>
-      <c r="G313" s="17"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
+      <c r="B314" s="24"/>
+      <c r="C314" s="24"/>
+      <c r="D314" s="24"/>
+      <c r="E314" s="24"/>
+      <c r="F314" s="24"/>
+      <c r="G314" s="25"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B315" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C314" s="4" t="s">
+      <c r="C315" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D314" s="4" t="s">
+      <c r="D315" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E314" s="4" t="s">
+      <c r="E315" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F314" s="4" t="s">
+      <c r="F315" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G314" s="4" t="s">
+      <c r="G315" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F315" s="5"/>
-      <c r="G315" s="5"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>249</v>
@@ -7126,82 +7128,82 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="3"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="18" t="s">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+    </row>
+    <row r="318" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="19"/>
-      <c r="E318" s="19"/>
-      <c r="F318" s="19"/>
-      <c r="G318" s="20"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="15" t="s">
+      <c r="B319" s="18"/>
+      <c r="C319" s="18"/>
+      <c r="D319" s="18"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="18"/>
+      <c r="G319" s="19"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B319" s="16"/>
-      <c r="C319" s="16"/>
-      <c r="D319" s="16"/>
-      <c r="E319" s="16"/>
-      <c r="F319" s="16"/>
-      <c r="G319" s="17"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
+      <c r="B320" s="24"/>
+      <c r="C320" s="24"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="24"/>
+      <c r="F320" s="24"/>
+      <c r="G320" s="25"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B321" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C320" s="4" t="s">
+      <c r="C321" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D320" s="4" t="s">
+      <c r="D321" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E320" s="4" t="s">
+      <c r="E321" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F320" s="4" t="s">
+      <c r="F321" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G320" s="4" t="s">
+      <c r="G321" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F321" s="5"/>
-      <c r="G321" s="5"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>1</v>
@@ -7210,20 +7212,20 @@
         <v>244</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>244</v>
@@ -7232,17 +7234,17 @@
         <v>249</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>244</v>
@@ -7258,110 +7260,110 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B325" s="5" t="s">
+      <c r="B326" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C325" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E325" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F325" s="5">
+      <c r="C326" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F326" s="5">
         <v>0</v>
       </c>
-      <c r="G325" s="5"/>
-    </row>
-    <row r="326" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="3"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="18" t="s">
+      <c r="G326" s="5"/>
+    </row>
+    <row r="327" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="19"/>
-      <c r="G327" s="20"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="15" t="s">
+      <c r="B328" s="18"/>
+      <c r="C328" s="18"/>
+      <c r="D328" s="18"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="18"/>
+      <c r="G328" s="19"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B328" s="16"/>
-      <c r="C328" s="16"/>
-      <c r="D328" s="16"/>
-      <c r="E328" s="16"/>
-      <c r="F328" s="16"/>
-      <c r="G328" s="17"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="4" t="s">
+      <c r="B329" s="24"/>
+      <c r="C329" s="24"/>
+      <c r="D329" s="24"/>
+      <c r="E329" s="24"/>
+      <c r="F329" s="24"/>
+      <c r="G329" s="25"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B330" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="C330" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D329" s="4" t="s">
+      <c r="D330" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E329" s="4" t="s">
+      <c r="E330" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="F330" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G329" s="4" t="s">
+      <c r="G330" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C330" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E330" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F330" s="5"/>
-      <c r="G330" s="5"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>249</v>
@@ -7369,82 +7371,82 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="3"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="F332" s="2"/>
-      <c r="G332" s="2"/>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="18" t="s">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+    </row>
+    <row r="333" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B333" s="19"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="19"/>
-      <c r="E333" s="19"/>
-      <c r="F333" s="19"/>
-      <c r="G333" s="20"/>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="15" t="s">
+      <c r="B334" s="18"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="18"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="18"/>
+      <c r="G334" s="19"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B334" s="16"/>
-      <c r="C334" s="16"/>
-      <c r="D334" s="16"/>
-      <c r="E334" s="16"/>
-      <c r="F334" s="16"/>
-      <c r="G334" s="17"/>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
+      <c r="B335" s="24"/>
+      <c r="C335" s="24"/>
+      <c r="D335" s="24"/>
+      <c r="E335" s="24"/>
+      <c r="F335" s="24"/>
+      <c r="G335" s="25"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B336" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C335" s="4" t="s">
+      <c r="C336" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D335" s="4" t="s">
+      <c r="D336" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E335" s="4" t="s">
+      <c r="E336" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F335" s="4" t="s">
+      <c r="F336" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G335" s="4" t="s">
+      <c r="G336" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D336" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E336" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F336" s="5"/>
-      <c r="G336" s="5"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>1</v>
@@ -7453,20 +7455,20 @@
         <v>244</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>244</v>
@@ -7475,17 +7477,17 @@
         <v>249</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>244</v>
@@ -7501,10 +7503,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>244</v>
@@ -7515,108 +7517,108 @@
       <c r="E340" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
+      <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F341" s="5">
+        <v>0</v>
+      </c>
+      <c r="G341" s="5"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="B342" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C341" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D341" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E341" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F341" s="5" t="s">
+      <c r="C342" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F342" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G341" s="5"/>
-    </row>
-    <row r="342" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="3"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
-      <c r="G342" s="2"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="18" t="s">
+      <c r="G342" s="5"/>
+    </row>
+    <row r="343" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="3"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B343" s="19"/>
-      <c r="C343" s="19"/>
-      <c r="D343" s="19"/>
-      <c r="E343" s="19"/>
-      <c r="F343" s="19"/>
-      <c r="G343" s="20"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="15" t="s">
+      <c r="B344" s="18"/>
+      <c r="C344" s="18"/>
+      <c r="D344" s="18"/>
+      <c r="E344" s="18"/>
+      <c r="F344" s="18"/>
+      <c r="G344" s="19"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B344" s="16"/>
-      <c r="C344" s="16"/>
-      <c r="D344" s="16"/>
-      <c r="E344" s="16"/>
-      <c r="F344" s="16"/>
-      <c r="G344" s="17"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
+      <c r="B345" s="24"/>
+      <c r="C345" s="24"/>
+      <c r="D345" s="24"/>
+      <c r="E345" s="24"/>
+      <c r="F345" s="24"/>
+      <c r="G345" s="25"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B346" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="C346" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D345" s="4" t="s">
+      <c r="D346" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E345" s="4" t="s">
+      <c r="E346" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F345" s="4" t="s">
+      <c r="F346" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G345" s="4" t="s">
+      <c r="G346" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E346" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F346" s="5"/>
-      <c r="G346" s="5"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>1</v>
@@ -7625,17 +7627,17 @@
         <v>244</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>1</v>
@@ -7647,117 +7649,117 @@
         <v>249</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="B350" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C349" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E349" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F349" s="5" t="s">
+      <c r="C350" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F350" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G349" s="5"/>
-    </row>
-    <row r="350" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="3"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
-      <c r="F350" s="2"/>
-      <c r="G350" s="2"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="18" t="s">
+      <c r="G350" s="5"/>
+    </row>
+    <row r="351" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="3"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B351" s="19"/>
-      <c r="C351" s="19"/>
-      <c r="D351" s="19"/>
-      <c r="E351" s="19"/>
-      <c r="F351" s="19"/>
-      <c r="G351" s="20"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="15" t="s">
+      <c r="B352" s="18"/>
+      <c r="C352" s="18"/>
+      <c r="D352" s="18"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="19"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B352" s="16"/>
-      <c r="C352" s="16"/>
-      <c r="D352" s="16"/>
-      <c r="E352" s="16"/>
-      <c r="F352" s="16"/>
-      <c r="G352" s="17"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
+      <c r="B353" s="24"/>
+      <c r="C353" s="24"/>
+      <c r="D353" s="24"/>
+      <c r="E353" s="24"/>
+      <c r="F353" s="24"/>
+      <c r="G353" s="25"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B354" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C353" s="4" t="s">
+      <c r="C354" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D353" s="4" t="s">
+      <c r="D354" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E353" s="4" t="s">
+      <c r="E354" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F353" s="4" t="s">
+      <c r="F354" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G353" s="4" t="s">
+      <c r="G354" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E354" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F354" s="5"/>
-      <c r="G354" s="5"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E355" s="5" t="s">
         <v>249</v>
@@ -7767,10 +7769,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>244</v>
@@ -7779,14 +7781,14 @@
         <v>249</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>1</v>
@@ -7805,10 +7807,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>244</v>
@@ -7817,108 +7819,108 @@
         <v>249</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B359" s="5" t="s">
+      <c r="B360" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C359" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D359" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F359" s="5" t="s">
+      <c r="C360" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F360" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G359" s="5"/>
-    </row>
-    <row r="360" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="3"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="2"/>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="18" t="s">
+      <c r="G360" s="5"/>
+    </row>
+    <row r="361" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="3"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B361" s="19"/>
-      <c r="C361" s="19"/>
-      <c r="D361" s="19"/>
-      <c r="E361" s="19"/>
-      <c r="F361" s="19"/>
-      <c r="G361" s="20"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="15" t="s">
+      <c r="B362" s="18"/>
+      <c r="C362" s="18"/>
+      <c r="D362" s="18"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="18"/>
+      <c r="G362" s="19"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B362" s="16"/>
-      <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
-      <c r="E362" s="16"/>
-      <c r="F362" s="16"/>
-      <c r="G362" s="17"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
+      <c r="B363" s="24"/>
+      <c r="C363" s="24"/>
+      <c r="D363" s="24"/>
+      <c r="E363" s="24"/>
+      <c r="F363" s="24"/>
+      <c r="G363" s="25"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B364" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C363" s="4" t="s">
+      <c r="C364" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D363" s="4" t="s">
+      <c r="D364" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E363" s="4" t="s">
+      <c r="E364" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F363" s="4" t="s">
+      <c r="F364" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G363" s="4" t="s">
+      <c r="G364" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D364" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F364" s="5"/>
-      <c r="G364" s="5"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>1</v>
@@ -7927,17 +7929,17 @@
         <v>244</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>1</v>
@@ -7956,101 +7958,101 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B368" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C367" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D367" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F367" s="5" t="s">
+      <c r="C368" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F368" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G367" s="5"/>
-    </row>
-    <row r="368" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="21" t="s">
+      <c r="G368" s="5"/>
+    </row>
+    <row r="369" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B369" s="22"/>
-      <c r="C369" s="22"/>
-      <c r="D369" s="22"/>
-      <c r="E369" s="22"/>
-      <c r="F369" s="22"/>
-      <c r="G369" s="23"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="15" t="s">
+      <c r="B370" s="21"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
+      <c r="E370" s="21"/>
+      <c r="F370" s="21"/>
+      <c r="G370" s="22"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B370" s="16"/>
-      <c r="C370" s="16"/>
-      <c r="D370" s="16"/>
-      <c r="E370" s="16"/>
-      <c r="F370" s="16"/>
-      <c r="G370" s="17"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="24"/>
+      <c r="E371" s="24"/>
+      <c r="F371" s="24"/>
+      <c r="G371" s="25"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="B372" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C371" s="4" t="s">
+      <c r="C372" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D371" s="4" t="s">
+      <c r="D372" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E371" s="4" t="s">
+      <c r="E372" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F371" s="4" t="s">
+      <c r="F372" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G371" s="4" t="s">
+      <c r="G372" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B372" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D372" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E372" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F372" s="5"/>
-      <c r="G372" s="5"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>1</v>
@@ -8059,20 +8061,20 @@
         <v>244</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>244</v>
@@ -8081,87 +8083,87 @@
         <v>249</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="3"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="2"/>
-      <c r="G375" s="2"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="21" t="s">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+    </row>
+    <row r="376" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B376" s="22"/>
-      <c r="C376" s="22"/>
-      <c r="D376" s="22"/>
-      <c r="E376" s="22"/>
-      <c r="F376" s="22"/>
-      <c r="G376" s="23"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="15" t="s">
+      <c r="B377" s="21"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="21"/>
+      <c r="F377" s="21"/>
+      <c r="G377" s="22"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B377" s="16"/>
-      <c r="C377" s="16"/>
-      <c r="D377" s="16"/>
-      <c r="E377" s="16"/>
-      <c r="F377" s="16"/>
-      <c r="G377" s="17"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="4" t="s">
+      <c r="B378" s="24"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="24"/>
+      <c r="E378" s="24"/>
+      <c r="F378" s="24"/>
+      <c r="G378" s="25"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B379" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C378" s="4" t="s">
+      <c r="C379" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D378" s="4" t="s">
+      <c r="D379" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E378" s="4" t="s">
+      <c r="E379" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F378" s="4" t="s">
+      <c r="F379" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G378" s="4" t="s">
+      <c r="G379" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B379" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D379" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E379" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F379" s="5"/>
-      <c r="G379" s="5"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>1</v>
@@ -8170,20 +8172,20 @@
         <v>244</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>244</v>
@@ -8192,108 +8194,108 @@
         <v>249</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B383" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D382" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F382" s="5">
-        <v>1</v>
-      </c>
-      <c r="G382" s="5"/>
-    </row>
-    <row r="383" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="3"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="18" t="s">
+      <c r="C383" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F383" s="5">
+        <v>1</v>
+      </c>
+      <c r="G383" s="5"/>
+    </row>
+    <row r="384" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="3"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B384" s="19"/>
-      <c r="C384" s="19"/>
-      <c r="D384" s="19"/>
-      <c r="E384" s="19"/>
-      <c r="F384" s="19"/>
-      <c r="G384" s="20"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="15" t="s">
+      <c r="B385" s="18"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="18"/>
+      <c r="E385" s="18"/>
+      <c r="F385" s="18"/>
+      <c r="G385" s="19"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B385" s="16"/>
-      <c r="C385" s="16"/>
-      <c r="D385" s="16"/>
-      <c r="E385" s="16"/>
-      <c r="F385" s="16"/>
-      <c r="G385" s="17"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="4" t="s">
+      <c r="B386" s="24"/>
+      <c r="C386" s="24"/>
+      <c r="D386" s="24"/>
+      <c r="E386" s="24"/>
+      <c r="F386" s="24"/>
+      <c r="G386" s="25"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B387" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C386" s="4" t="s">
+      <c r="C387" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D386" s="4" t="s">
+      <c r="D387" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E386" s="4" t="s">
+      <c r="E387" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F386" s="4" t="s">
+      <c r="F387" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G386" s="4" t="s">
+      <c r="G387" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D387" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E387" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F387" s="5"/>
-      <c r="G387" s="5"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>1</v>
@@ -8302,20 +8304,20 @@
         <v>244</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F388" s="5"/>
       <c r="G388" s="5"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>244</v>
@@ -8324,87 +8326,87 @@
         <v>249</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
     </row>
-    <row r="390" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="3"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="18" t="s">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+    </row>
+    <row r="391" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="3"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B391" s="19"/>
-      <c r="C391" s="19"/>
-      <c r="D391" s="19"/>
-      <c r="E391" s="19"/>
-      <c r="F391" s="19"/>
-      <c r="G391" s="20"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="15" t="s">
+      <c r="B392" s="18"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="18"/>
+      <c r="E392" s="18"/>
+      <c r="F392" s="18"/>
+      <c r="G392" s="19"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B392" s="16"/>
-      <c r="C392" s="16"/>
-      <c r="D392" s="16"/>
-      <c r="E392" s="16"/>
-      <c r="F392" s="16"/>
-      <c r="G392" s="17"/>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="4" t="s">
+      <c r="B393" s="24"/>
+      <c r="C393" s="24"/>
+      <c r="D393" s="24"/>
+      <c r="E393" s="24"/>
+      <c r="F393" s="24"/>
+      <c r="G393" s="25"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B394" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C393" s="4" t="s">
+      <c r="C394" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D393" s="4" t="s">
+      <c r="D394" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E393" s="4" t="s">
+      <c r="E394" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F393" s="4" t="s">
+      <c r="F394" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G393" s="4" t="s">
+      <c r="G394" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D394" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E394" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F394" s="5"/>
-      <c r="G394" s="5"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>1</v>
@@ -8413,20 +8415,20 @@
         <v>244</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F395" s="5"/>
       <c r="G395" s="5"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>244</v>
@@ -8435,117 +8437,117 @@
         <v>249</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B398" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C397" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D397" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E397" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F397" s="5" t="s">
+      <c r="C398" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F398" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G397" s="5"/>
-    </row>
-    <row r="398" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="3"/>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="18" t="s">
+      <c r="G398" s="5"/>
+    </row>
+    <row r="399" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="3"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B399" s="19"/>
-      <c r="C399" s="19"/>
-      <c r="D399" s="19"/>
-      <c r="E399" s="19"/>
-      <c r="F399" s="19"/>
-      <c r="G399" s="20"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="15" t="s">
+      <c r="B400" s="18"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="18"/>
+      <c r="E400" s="18"/>
+      <c r="F400" s="18"/>
+      <c r="G400" s="19"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B400" s="16"/>
-      <c r="C400" s="16"/>
-      <c r="D400" s="16"/>
-      <c r="E400" s="16"/>
-      <c r="F400" s="16"/>
-      <c r="G400" s="17"/>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="4" t="s">
+      <c r="B401" s="24"/>
+      <c r="C401" s="24"/>
+      <c r="D401" s="24"/>
+      <c r="E401" s="24"/>
+      <c r="F401" s="24"/>
+      <c r="G401" s="25"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B402" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C401" s="4" t="s">
+      <c r="C402" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D401" s="4" t="s">
+      <c r="D402" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E401" s="4" t="s">
+      <c r="E402" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F401" s="4" t="s">
+      <c r="F402" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G401" s="4" t="s">
+      <c r="G402" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D402" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E402" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F402" s="5"/>
-      <c r="G402" s="5"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E403" s="5" t="s">
         <v>249</v>
@@ -8553,82 +8555,82 @@
       <c r="F403" s="5"/>
       <c r="G403" s="5"/>
     </row>
-    <row r="404" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="3"/>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="F404" s="2"/>
-      <c r="G404" s="2"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="18" t="s">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+    </row>
+    <row r="405" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="3"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B405" s="19"/>
-      <c r="C405" s="19"/>
-      <c r="D405" s="19"/>
-      <c r="E405" s="19"/>
-      <c r="F405" s="19"/>
-      <c r="G405" s="20"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="15" t="s">
+      <c r="B406" s="18"/>
+      <c r="C406" s="18"/>
+      <c r="D406" s="18"/>
+      <c r="E406" s="18"/>
+      <c r="F406" s="18"/>
+      <c r="G406" s="19"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B406" s="16"/>
-      <c r="C406" s="16"/>
-      <c r="D406" s="16"/>
-      <c r="E406" s="16"/>
-      <c r="F406" s="16"/>
-      <c r="G406" s="17"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="4" t="s">
+      <c r="B407" s="24"/>
+      <c r="C407" s="24"/>
+      <c r="D407" s="24"/>
+      <c r="E407" s="24"/>
+      <c r="F407" s="24"/>
+      <c r="G407" s="25"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B408" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C408" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D407" s="4" t="s">
+      <c r="D408" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E407" s="4" t="s">
+      <c r="E408" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F407" s="4" t="s">
+      <c r="F408" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G407" s="4" t="s">
+      <c r="G408" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B408" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C408" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D408" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E408" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F408" s="5"/>
-      <c r="G408" s="5"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>1</v>
@@ -8637,17 +8639,17 @@
         <v>244</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F409" s="5"/>
       <c r="G409" s="5"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>1</v>
@@ -8664,91 +8666,91 @@
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
     </row>
-    <row r="411" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="3"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="F411" s="2"/>
-      <c r="G411" s="2"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="18" t="s">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+    </row>
+    <row r="412" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="3"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B412" s="19"/>
-      <c r="C412" s="19"/>
-      <c r="D412" s="19"/>
-      <c r="E412" s="19"/>
-      <c r="F412" s="19"/>
-      <c r="G412" s="20"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="15" t="s">
+      <c r="B413" s="18"/>
+      <c r="C413" s="18"/>
+      <c r="D413" s="18"/>
+      <c r="E413" s="18"/>
+      <c r="F413" s="18"/>
+      <c r="G413" s="19"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B413" s="16"/>
-      <c r="C413" s="16"/>
-      <c r="D413" s="16"/>
-      <c r="E413" s="16"/>
-      <c r="F413" s="16"/>
-      <c r="G413" s="17"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="4" t="s">
+      <c r="B414" s="24"/>
+      <c r="C414" s="24"/>
+      <c r="D414" s="24"/>
+      <c r="E414" s="24"/>
+      <c r="F414" s="24"/>
+      <c r="G414" s="25"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B415" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C414" s="4" t="s">
+      <c r="C415" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D414" s="4" t="s">
+      <c r="D415" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E414" s="4" t="s">
+      <c r="E415" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F414" s="4" t="s">
+      <c r="F415" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G414" s="4" t="s">
+      <c r="G415" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C415" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D415" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E415" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F415" s="5"/>
-      <c r="G415" s="5"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>249</v>
@@ -8756,82 +8758,82 @@
       <c r="F416" s="5"/>
       <c r="G416" s="5"/>
     </row>
-    <row r="417" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="3"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="18" t="s">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+    </row>
+    <row r="418" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="3"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B418" s="19"/>
-      <c r="C418" s="19"/>
-      <c r="D418" s="19"/>
-      <c r="E418" s="19"/>
-      <c r="F418" s="19"/>
-      <c r="G418" s="20"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="15" t="s">
+      <c r="B419" s="18"/>
+      <c r="C419" s="18"/>
+      <c r="D419" s="18"/>
+      <c r="E419" s="18"/>
+      <c r="F419" s="18"/>
+      <c r="G419" s="19"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B419" s="16"/>
-      <c r="C419" s="16"/>
-      <c r="D419" s="16"/>
-      <c r="E419" s="16"/>
-      <c r="F419" s="16"/>
-      <c r="G419" s="17"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
+      <c r="B420" s="24"/>
+      <c r="C420" s="24"/>
+      <c r="D420" s="24"/>
+      <c r="E420" s="24"/>
+      <c r="F420" s="24"/>
+      <c r="G420" s="25"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B420" s="4" t="s">
+      <c r="B421" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C420" s="4" t="s">
+      <c r="C421" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D420" s="4" t="s">
+      <c r="D421" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E420" s="4" t="s">
+      <c r="E421" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F420" s="4" t="s">
+      <c r="F421" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G420" s="4" t="s">
+      <c r="G421" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C421" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D421" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E421" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F421" s="5"/>
-      <c r="G421" s="5"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>1</v>
@@ -8840,20 +8842,20 @@
         <v>244</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F422" s="5"/>
       <c r="G422" s="5"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>244</v>
@@ -8862,108 +8864,108 @@
         <v>249</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B424" s="5" t="s">
+      <c r="B425" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C424" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D424" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E424" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F424" s="5">
+      <c r="C425" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F425" s="5">
         <v>0</v>
       </c>
-      <c r="G424" s="5"/>
-    </row>
-    <row r="425" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="3"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="18" t="s">
+      <c r="G425" s="5"/>
+    </row>
+    <row r="426" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="3"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B426" s="19"/>
-      <c r="C426" s="19"/>
-      <c r="D426" s="19"/>
-      <c r="E426" s="19"/>
-      <c r="F426" s="19"/>
-      <c r="G426" s="20"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="15" t="s">
+      <c r="B427" s="18"/>
+      <c r="C427" s="18"/>
+      <c r="D427" s="18"/>
+      <c r="E427" s="18"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="19"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B427" s="16"/>
-      <c r="C427" s="16"/>
-      <c r="D427" s="16"/>
-      <c r="E427" s="16"/>
-      <c r="F427" s="16"/>
-      <c r="G427" s="17"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="4" t="s">
+      <c r="B428" s="24"/>
+      <c r="C428" s="24"/>
+      <c r="D428" s="24"/>
+      <c r="E428" s="24"/>
+      <c r="F428" s="24"/>
+      <c r="G428" s="25"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B428" s="4" t="s">
+      <c r="B429" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C428" s="4" t="s">
+      <c r="C429" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D428" s="4" t="s">
+      <c r="D429" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E428" s="4" t="s">
+      <c r="E429" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F428" s="4" t="s">
+      <c r="F429" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G428" s="4" t="s">
+      <c r="G429" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B429" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C429" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D429" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E429" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F429" s="5"/>
-      <c r="G429" s="5"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>1</v>
@@ -8972,20 +8974,20 @@
         <v>244</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E430" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F430" s="5"/>
       <c r="G430" s="5"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>244</v>
@@ -8994,117 +8996,117 @@
         <v>249</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="B433" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C432" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D432" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E432" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F432" s="5">
+      <c r="C433" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F433" s="5">
         <v>0</v>
       </c>
-      <c r="G432" s="5"/>
-    </row>
-    <row r="433" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="3"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="18" t="s">
+      <c r="G433" s="5"/>
+    </row>
+    <row r="434" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="3"/>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B434" s="19"/>
-      <c r="C434" s="19"/>
-      <c r="D434" s="19"/>
-      <c r="E434" s="19"/>
-      <c r="F434" s="19"/>
-      <c r="G434" s="20"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="15" t="s">
+      <c r="B435" s="18"/>
+      <c r="C435" s="18"/>
+      <c r="D435" s="18"/>
+      <c r="E435" s="18"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="19"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B435" s="16"/>
-      <c r="C435" s="16"/>
-      <c r="D435" s="16"/>
-      <c r="E435" s="16"/>
-      <c r="F435" s="16"/>
-      <c r="G435" s="17"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="4" t="s">
+      <c r="B436" s="24"/>
+      <c r="C436" s="24"/>
+      <c r="D436" s="24"/>
+      <c r="E436" s="24"/>
+      <c r="F436" s="24"/>
+      <c r="G436" s="25"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B437" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C436" s="4" t="s">
+      <c r="C437" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D436" s="4" t="s">
+      <c r="D437" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E436" s="4" t="s">
+      <c r="E437" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F436" s="4" t="s">
+      <c r="F437" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G436" s="4" t="s">
+      <c r="G437" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B437" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C437" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D437" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E437" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F437" s="5"/>
-      <c r="G437" s="5"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>249</v>
@@ -9112,73 +9114,73 @@
       <c r="F438" s="5"/>
       <c r="G438" s="5"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="12" t="s">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B440" s="13"/>
-      <c r="C440" s="13"/>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13"/>
-      <c r="F440" s="13"/>
-      <c r="G440" s="13"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="12" t="s">
+      <c r="B441" s="16"/>
+      <c r="C441" s="16"/>
+      <c r="D441" s="16"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="16"/>
+      <c r="G441" s="16"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B441" s="12"/>
-      <c r="C441" s="12"/>
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
-      <c r="F441" s="12"/>
-      <c r="G441" s="12"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="8" t="s">
+      <c r="B442" s="15"/>
+      <c r="C442" s="15"/>
+      <c r="D442" s="15"/>
+      <c r="E442" s="15"/>
+      <c r="F442" s="15"/>
+      <c r="G442" s="15"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B443" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C442" s="8" t="s">
+      <c r="C443" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D442" s="8" t="s">
+      <c r="D443" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E442" s="8" t="s">
+      <c r="E443" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F442" s="8" t="s">
+      <c r="F443" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G442" s="8" t="s">
+      <c r="G443" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B443" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C443" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D443" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E443" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F443" s="10"/>
-      <c r="G443" s="10"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B444" s="9" t="s">
         <v>1</v>
@@ -9187,17 +9189,17 @@
         <v>252</v>
       </c>
       <c r="D444" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E444" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F444" s="10"/>
       <c r="G444" s="10"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>1</v>
@@ -9216,10 +9218,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="C446" s="9" t="s">
         <v>252</v>
@@ -9228,19 +9230,19 @@
         <v>249</v>
       </c>
       <c r="E446" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F446" s="10"/>
       <c r="G446" s="10"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C447" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C447" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D447" s="9" t="s">
@@ -9254,12 +9256,12 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B448" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C448" s="9" t="s">
+      <c r="C448" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D448" s="9" t="s">
@@ -9273,101 +9275,101 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E449" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F449" s="10"/>
+      <c r="G449" s="10"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B450" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C449" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D449" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E449" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F449" s="5" t="s">
+      <c r="C450" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E450" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F450" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G449" s="10"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="12" t="s">
+      <c r="G450" s="10"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B451" s="13"/>
-      <c r="C451" s="13"/>
-      <c r="D451" s="13"/>
-      <c r="E451" s="13"/>
-      <c r="F451" s="13"/>
-      <c r="G451" s="13"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="12" t="s">
+      <c r="B452" s="16"/>
+      <c r="C452" s="16"/>
+      <c r="D452" s="16"/>
+      <c r="E452" s="16"/>
+      <c r="F452" s="16"/>
+      <c r="G452" s="16"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B452" s="12"/>
-      <c r="C452" s="12"/>
-      <c r="D452" s="12"/>
-      <c r="E452" s="12"/>
-      <c r="F452" s="12"/>
-      <c r="G452" s="12"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="8" t="s">
+      <c r="B453" s="15"/>
+      <c r="C453" s="15"/>
+      <c r="D453" s="15"/>
+      <c r="E453" s="15"/>
+      <c r="F453" s="15"/>
+      <c r="G453" s="15"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B454" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C453" s="8" t="s">
+      <c r="C454" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D453" s="8" t="s">
+      <c r="D454" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E453" s="8" t="s">
+      <c r="E454" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F453" s="8" t="s">
+      <c r="F454" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G453" s="8" t="s">
+      <c r="G454" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B454" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C454" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D454" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E454" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F454" s="10"/>
-      <c r="G454" s="10"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="C455" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D455" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E455" s="9" t="s">
         <v>249</v>
@@ -9377,10 +9379,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C456" s="9" t="s">
         <v>252</v>
@@ -9395,138 +9397,71 @@
       <c r="G456" s="10"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="24"/>
-      <c r="B457" s="24"/>
-      <c r="C457" s="24"/>
-      <c r="D457" s="24"/>
-      <c r="E457" s="24"/>
-      <c r="F457" s="25"/>
-      <c r="G457" s="25"/>
+      <c r="A457" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D457" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E457" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F457" s="10"/>
+      <c r="G457" s="10"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="24"/>
-      <c r="B458" s="24"/>
-      <c r="C458" s="26"/>
-      <c r="D458" s="24"/>
-      <c r="E458" s="24"/>
-      <c r="F458" s="25"/>
-      <c r="G458" s="25"/>
+      <c r="A458" s="12"/>
+      <c r="B458" s="12"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="12"/>
+      <c r="F458" s="13"/>
+      <c r="G458" s="13"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="24"/>
-      <c r="B459" s="24"/>
-      <c r="C459" s="24"/>
-      <c r="D459" s="24"/>
-      <c r="E459" s="24"/>
-      <c r="F459" s="25"/>
-      <c r="G459" s="25"/>
+      <c r="A459" s="12"/>
+      <c r="B459" s="12"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="12"/>
+      <c r="F459" s="13"/>
+      <c r="G459" s="13"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="24"/>
-      <c r="B460" s="24"/>
-      <c r="C460" s="24"/>
-      <c r="D460" s="24"/>
-      <c r="E460" s="24"/>
-      <c r="F460" s="6"/>
-      <c r="G460" s="25"/>
+      <c r="A460" s="12"/>
+      <c r="B460" s="12"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
+      <c r="F460" s="13"/>
+      <c r="G460" s="13"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="12"/>
+      <c r="B461" s="12"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
+      <c r="F461" s="6"/>
+      <c r="G461" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="A451:G451"/>
-    <mergeCell ref="A452:G452"/>
-    <mergeCell ref="A412:G412"/>
-    <mergeCell ref="A434:G434"/>
-    <mergeCell ref="A418:G418"/>
-    <mergeCell ref="A426:G426"/>
-    <mergeCell ref="A369:G369"/>
-    <mergeCell ref="A376:G376"/>
-    <mergeCell ref="A384:G384"/>
-    <mergeCell ref="A391:G391"/>
-    <mergeCell ref="A399:G399"/>
-    <mergeCell ref="A413:G413"/>
-    <mergeCell ref="A419:G419"/>
-    <mergeCell ref="A427:G427"/>
-    <mergeCell ref="A187:G187"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A199:G199"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A269:G269"/>
-    <mergeCell ref="A277:G277"/>
-    <mergeCell ref="A304:G304"/>
-    <mergeCell ref="A333:G333"/>
-    <mergeCell ref="A327:G327"/>
-    <mergeCell ref="A312:G312"/>
-    <mergeCell ref="A318:G318"/>
-    <mergeCell ref="A205:G205"/>
-    <mergeCell ref="A261:G261"/>
-    <mergeCell ref="A270:G270"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A286:G286"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A313:G313"/>
-    <mergeCell ref="A285:G285"/>
-    <mergeCell ref="A244:G244"/>
-    <mergeCell ref="A253:G253"/>
-    <mergeCell ref="A252:G252"/>
-    <mergeCell ref="A351:G351"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="A145:G145"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="A198:G198"/>
-    <mergeCell ref="A220:G220"/>
-    <mergeCell ref="A230:G230"/>
-    <mergeCell ref="A243:G243"/>
-    <mergeCell ref="A236:G236"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="A166:G166"/>
-    <mergeCell ref="A172:G172"/>
-    <mergeCell ref="A179:G179"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="A192:G192"/>
-    <mergeCell ref="A206:G206"/>
-    <mergeCell ref="A221:G221"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A237:G237"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A435:G435"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A370:G370"/>
-    <mergeCell ref="A377:G377"/>
-    <mergeCell ref="A385:G385"/>
-    <mergeCell ref="A392:G392"/>
-    <mergeCell ref="A400:G400"/>
-    <mergeCell ref="A406:G406"/>
-    <mergeCell ref="A405:G405"/>
-    <mergeCell ref="A319:G319"/>
-    <mergeCell ref="A328:G328"/>
-    <mergeCell ref="A334:G334"/>
-    <mergeCell ref="A344:G344"/>
-    <mergeCell ref="A352:G352"/>
-    <mergeCell ref="A362:G362"/>
-    <mergeCell ref="A343:G343"/>
-    <mergeCell ref="A361:G361"/>
-    <mergeCell ref="A440:G440"/>
-    <mergeCell ref="A441:G441"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A153:G153"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A49:G49"/>
@@ -9540,6 +9475,92 @@
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A79:G79"/>
     <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A436:G436"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A371:G371"/>
+    <mergeCell ref="A378:G378"/>
+    <mergeCell ref="A386:G386"/>
+    <mergeCell ref="A393:G393"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="A407:G407"/>
+    <mergeCell ref="A406:G406"/>
+    <mergeCell ref="A320:G320"/>
+    <mergeCell ref="A329:G329"/>
+    <mergeCell ref="A335:G335"/>
+    <mergeCell ref="A345:G345"/>
+    <mergeCell ref="A353:G353"/>
+    <mergeCell ref="A363:G363"/>
+    <mergeCell ref="A344:G344"/>
+    <mergeCell ref="A362:G362"/>
+    <mergeCell ref="A352:G352"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="A221:G221"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A237:G237"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A207:G207"/>
+    <mergeCell ref="A222:G222"/>
+    <mergeCell ref="A232:G232"/>
+    <mergeCell ref="A238:G238"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A261:G261"/>
+    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A334:G334"/>
+    <mergeCell ref="A328:G328"/>
+    <mergeCell ref="A313:G313"/>
+    <mergeCell ref="A319:G319"/>
+    <mergeCell ref="A206:G206"/>
+    <mergeCell ref="A262:G262"/>
+    <mergeCell ref="A271:G271"/>
+    <mergeCell ref="A279:G279"/>
+    <mergeCell ref="A287:G287"/>
+    <mergeCell ref="A306:G306"/>
+    <mergeCell ref="A314:G314"/>
+    <mergeCell ref="A286:G286"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A254:G254"/>
+    <mergeCell ref="A253:G253"/>
+    <mergeCell ref="A452:G452"/>
+    <mergeCell ref="A453:G453"/>
+    <mergeCell ref="A413:G413"/>
+    <mergeCell ref="A435:G435"/>
+    <mergeCell ref="A419:G419"/>
+    <mergeCell ref="A427:G427"/>
+    <mergeCell ref="A370:G370"/>
+    <mergeCell ref="A377:G377"/>
+    <mergeCell ref="A385:G385"/>
+    <mergeCell ref="A392:G392"/>
+    <mergeCell ref="A400:G400"/>
+    <mergeCell ref="A414:G414"/>
+    <mergeCell ref="A420:G420"/>
+    <mergeCell ref="A428:G428"/>
+    <mergeCell ref="A441:G441"/>
+    <mergeCell ref="A442:G442"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/dicionario/dicionario_de_dados.xltx.xlsx
+++ b/database/dicionario/dicionario_de_dados.xltx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="268">
   <si>
     <t>id_cliente</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>VARCHAR(2400)</t>
+  </si>
+  <si>
+    <t>Tabela: tbl_topico_empresa-</t>
+  </si>
+  <si>
+    <t>id_topico_empresa</t>
+  </si>
+  <si>
+    <t>topico_empresa</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1441,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1467,13 +1476,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,6 +1500,9 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,18 +1511,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1861,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G461"/>
+  <dimension ref="A1:G467"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A444" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J462" sqref="J462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,26 +1885,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2142,26 +2148,26 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2253,26 +2259,26 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2463,26 +2469,26 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2707,26 +2713,26 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2799,26 +2805,26 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2891,26 +2897,26 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -3097,26 +3103,26 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3189,26 +3195,26 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3361,26 +3367,26 @@
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="25"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3685,26 +3691,26 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="25"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3777,26 +3783,26 @@
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="25"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -3947,26 +3953,26 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="19"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="25"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4039,26 +4045,26 @@
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="19"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="25"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4169,26 +4175,26 @@
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="19"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="25"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="17"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -4320,26 +4326,26 @@
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="19"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="21"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="25"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="17"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -4412,26 +4418,26 @@
       <c r="G151" s="2"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="19"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="21"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="25"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -4544,26 +4550,26 @@
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="19"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="21"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="25"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="17"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
@@ -4655,26 +4661,26 @@
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="19"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="21"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="23" t="s">
+      <c r="A168" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="25"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="17"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
@@ -4747,26 +4753,26 @@
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="19"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="21"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="25"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
@@ -4858,26 +4864,26 @@
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="19"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="21"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="23" t="s">
+      <c r="A181" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="25"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="17"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
@@ -4969,26 +4975,26 @@
       <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="21"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="23" t="s">
+      <c r="A188" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="25"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="17"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -5061,26 +5067,26 @@
       <c r="G192" s="2"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="19"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="21"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="23" t="s">
+      <c r="A194" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="25"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="17"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -5153,26 +5159,26 @@
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="19"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="21"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="23" t="s">
+      <c r="A200" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="25"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="17"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
@@ -5264,26 +5270,26 @@
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="21"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="23" t="s">
+      <c r="A207" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B207" s="24"/>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="25"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="17"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
@@ -5529,26 +5535,26 @@
       <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="19"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="21"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="23" t="s">
+      <c r="A222" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B222" s="24"/>
-      <c r="C222" s="24"/>
-      <c r="D222" s="24"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="24"/>
-      <c r="G222" s="25"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="17"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5697,26 +5703,26 @@
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="19"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="21"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="23" t="s">
+      <c r="A232" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B232" s="24"/>
-      <c r="C232" s="24"/>
-      <c r="D232" s="24"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="24"/>
-      <c r="G232" s="25"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="17"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
@@ -5789,26 +5795,26 @@
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
-      <c r="F237" s="18"/>
-      <c r="G237" s="19"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="21"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="24"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="24"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="25"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="17"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
@@ -5900,26 +5906,26 @@
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="17" t="s">
+      <c r="A244" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="19"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="21"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="23" t="s">
+      <c r="A245" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B245" s="24"/>
-      <c r="C245" s="24"/>
-      <c r="D245" s="24"/>
-      <c r="E245" s="24"/>
-      <c r="F245" s="24"/>
-      <c r="G245" s="25"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="17"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
@@ -6051,26 +6057,26 @@
       <c r="G252" s="2"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="17" t="s">
+      <c r="A253" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="19"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="21"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="23" t="s">
+      <c r="A254" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B254" s="24"/>
-      <c r="C254" s="24"/>
-      <c r="D254" s="24"/>
-      <c r="E254" s="24"/>
-      <c r="F254" s="24"/>
-      <c r="G254" s="25"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="17"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
@@ -6181,26 +6187,26 @@
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="17" t="s">
+      <c r="A261" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
-      <c r="F261" s="18"/>
-      <c r="G261" s="19"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="21"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="23" t="s">
+      <c r="A262" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="24"/>
-      <c r="C262" s="24"/>
-      <c r="D262" s="24"/>
-      <c r="E262" s="24"/>
-      <c r="F262" s="24"/>
-      <c r="G262" s="25"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="17"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
@@ -6330,26 +6336,26 @@
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="17" t="s">
+      <c r="A270" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
-      <c r="F270" s="18"/>
-      <c r="G270" s="19"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="21"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="23" t="s">
+      <c r="A271" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B271" s="24"/>
-      <c r="C271" s="24"/>
-      <c r="D271" s="24"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="24"/>
-      <c r="G271" s="25"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="17"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
@@ -6462,26 +6468,26 @@
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="17" t="s">
+      <c r="A278" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
-      <c r="F278" s="18"/>
-      <c r="G278" s="19"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="21"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="23" t="s">
+      <c r="A279" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="24"/>
-      <c r="C279" s="24"/>
-      <c r="D279" s="24"/>
-      <c r="E279" s="24"/>
-      <c r="F279" s="24"/>
-      <c r="G279" s="25"/>
+      <c r="B279" s="16"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="17"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
@@ -6592,26 +6598,26 @@
       <c r="G285" s="2"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="17" t="s">
+      <c r="A286" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
-      <c r="F286" s="18"/>
-      <c r="G286" s="19"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="21"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="23" t="s">
+      <c r="A287" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B287" s="24"/>
-      <c r="C287" s="24"/>
-      <c r="D287" s="24"/>
-      <c r="E287" s="24"/>
-      <c r="F287" s="24"/>
-      <c r="G287" s="25"/>
+      <c r="B287" s="16"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="17"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
@@ -6931,26 +6937,26 @@
       <c r="G304" s="2"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="17" t="s">
+      <c r="A305" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="18"/>
-      <c r="F305" s="18"/>
-      <c r="G305" s="19"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="21"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="23" t="s">
+      <c r="A306" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B306" s="24"/>
-      <c r="C306" s="24"/>
-      <c r="D306" s="24"/>
-      <c r="E306" s="24"/>
-      <c r="F306" s="24"/>
-      <c r="G306" s="25"/>
+      <c r="B306" s="16"/>
+      <c r="C306" s="16"/>
+      <c r="D306" s="16"/>
+      <c r="E306" s="16"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="17"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
@@ -7065,26 +7071,26 @@
       <c r="G312" s="2"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="17" t="s">
+      <c r="A313" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B313" s="18"/>
-      <c r="C313" s="18"/>
-      <c r="D313" s="18"/>
-      <c r="E313" s="18"/>
-      <c r="F313" s="18"/>
-      <c r="G313" s="19"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="20"/>
+      <c r="F313" s="20"/>
+      <c r="G313" s="21"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="23" t="s">
+      <c r="A314" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B314" s="24"/>
-      <c r="C314" s="24"/>
-      <c r="D314" s="24"/>
-      <c r="E314" s="24"/>
-      <c r="F314" s="24"/>
-      <c r="G314" s="25"/>
+      <c r="B314" s="16"/>
+      <c r="C314" s="16"/>
+      <c r="D314" s="16"/>
+      <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="17"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
@@ -7157,26 +7163,26 @@
       <c r="G318" s="2"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="17" t="s">
+      <c r="A319" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="18"/>
-      <c r="F319" s="18"/>
-      <c r="G319" s="19"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="20"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="21"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="23" t="s">
+      <c r="A320" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B320" s="24"/>
-      <c r="C320" s="24"/>
-      <c r="D320" s="24"/>
-      <c r="E320" s="24"/>
-      <c r="F320" s="24"/>
-      <c r="G320" s="25"/>
+      <c r="B320" s="16"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="16"/>
+      <c r="G320" s="17"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
@@ -7308,26 +7314,26 @@
       <c r="G327" s="2"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="17" t="s">
+      <c r="A328" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
-      <c r="F328" s="18"/>
-      <c r="G328" s="19"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="20"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="21"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="23" t="s">
+      <c r="A329" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B329" s="24"/>
-      <c r="C329" s="24"/>
-      <c r="D329" s="24"/>
-      <c r="E329" s="24"/>
-      <c r="F329" s="24"/>
-      <c r="G329" s="25"/>
+      <c r="B329" s="16"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="17"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
@@ -7400,26 +7406,26 @@
       <c r="G333" s="2"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="17" t="s">
+      <c r="A334" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
-      <c r="D334" s="18"/>
-      <c r="E334" s="18"/>
-      <c r="F334" s="18"/>
-      <c r="G334" s="19"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="20"/>
+      <c r="E334" s="20"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="21"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="23" t="s">
+      <c r="A335" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B335" s="24"/>
-      <c r="C335" s="24"/>
-      <c r="D335" s="24"/>
-      <c r="E335" s="24"/>
-      <c r="F335" s="24"/>
-      <c r="G335" s="25"/>
+      <c r="B335" s="16"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="17"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
@@ -7572,26 +7578,26 @@
       <c r="G343" s="2"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="17" t="s">
+      <c r="A344" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="18"/>
-      <c r="F344" s="18"/>
-      <c r="G344" s="19"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="20"/>
+      <c r="E344" s="20"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="21"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="23" t="s">
+      <c r="A345" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B345" s="24"/>
-      <c r="C345" s="24"/>
-      <c r="D345" s="24"/>
-      <c r="E345" s="24"/>
-      <c r="F345" s="24"/>
-      <c r="G345" s="25"/>
+      <c r="B345" s="16"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="17"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
@@ -7704,26 +7710,26 @@
       <c r="G351" s="2"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="17" t="s">
+      <c r="A352" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
-      <c r="D352" s="18"/>
-      <c r="E352" s="18"/>
-      <c r="F352" s="18"/>
-      <c r="G352" s="19"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
+      <c r="D352" s="20"/>
+      <c r="E352" s="20"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="21"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="23" t="s">
+      <c r="A353" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B353" s="24"/>
-      <c r="C353" s="24"/>
-      <c r="D353" s="24"/>
-      <c r="E353" s="24"/>
-      <c r="F353" s="24"/>
-      <c r="G353" s="25"/>
+      <c r="B353" s="16"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="17"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
@@ -7874,26 +7880,26 @@
       <c r="G361" s="2"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="17" t="s">
+      <c r="A362" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B362" s="18"/>
-      <c r="C362" s="18"/>
-      <c r="D362" s="18"/>
-      <c r="E362" s="18"/>
-      <c r="F362" s="18"/>
-      <c r="G362" s="19"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="20"/>
+      <c r="D362" s="20"/>
+      <c r="E362" s="20"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="21"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="23" t="s">
+      <c r="A363" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B363" s="24"/>
-      <c r="C363" s="24"/>
-      <c r="D363" s="24"/>
-      <c r="E363" s="24"/>
-      <c r="F363" s="24"/>
-      <c r="G363" s="25"/>
+      <c r="B363" s="16"/>
+      <c r="C363" s="16"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
+      <c r="G363" s="17"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
@@ -8006,26 +8012,26 @@
       <c r="G369" s="2"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="20" t="s">
+      <c r="A370" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B370" s="21"/>
-      <c r="C370" s="21"/>
-      <c r="D370" s="21"/>
-      <c r="E370" s="21"/>
-      <c r="F370" s="21"/>
-      <c r="G370" s="22"/>
+      <c r="B370" s="24"/>
+      <c r="C370" s="24"/>
+      <c r="D370" s="24"/>
+      <c r="E370" s="24"/>
+      <c r="F370" s="24"/>
+      <c r="G370" s="25"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="23" t="s">
+      <c r="A371" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
-      <c r="D371" s="24"/>
-      <c r="E371" s="24"/>
-      <c r="F371" s="24"/>
-      <c r="G371" s="25"/>
+      <c r="B371" s="16"/>
+      <c r="C371" s="16"/>
+      <c r="D371" s="16"/>
+      <c r="E371" s="16"/>
+      <c r="F371" s="16"/>
+      <c r="G371" s="17"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
@@ -8117,26 +8123,26 @@
       <c r="G376" s="2"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="20" t="s">
+      <c r="A377" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B377" s="21"/>
-      <c r="C377" s="21"/>
-      <c r="D377" s="21"/>
-      <c r="E377" s="21"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="22"/>
+      <c r="B377" s="24"/>
+      <c r="C377" s="24"/>
+      <c r="D377" s="24"/>
+      <c r="E377" s="24"/>
+      <c r="F377" s="24"/>
+      <c r="G377" s="25"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="23" t="s">
+      <c r="A378" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B378" s="24"/>
-      <c r="C378" s="24"/>
-      <c r="D378" s="24"/>
-      <c r="E378" s="24"/>
-      <c r="F378" s="24"/>
-      <c r="G378" s="25"/>
+      <c r="B378" s="16"/>
+      <c r="C378" s="16"/>
+      <c r="D378" s="16"/>
+      <c r="E378" s="16"/>
+      <c r="F378" s="16"/>
+      <c r="G378" s="17"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
@@ -8249,26 +8255,26 @@
       <c r="G384" s="2"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="17" t="s">
+      <c r="A385" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B385" s="18"/>
-      <c r="C385" s="18"/>
-      <c r="D385" s="18"/>
-      <c r="E385" s="18"/>
-      <c r="F385" s="18"/>
-      <c r="G385" s="19"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="20"/>
+      <c r="D385" s="20"/>
+      <c r="E385" s="20"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="21"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="23" t="s">
+      <c r="A386" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B386" s="24"/>
-      <c r="C386" s="24"/>
-      <c r="D386" s="24"/>
-      <c r="E386" s="24"/>
-      <c r="F386" s="24"/>
-      <c r="G386" s="25"/>
+      <c r="B386" s="16"/>
+      <c r="C386" s="16"/>
+      <c r="D386" s="16"/>
+      <c r="E386" s="16"/>
+      <c r="F386" s="16"/>
+      <c r="G386" s="17"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
@@ -8360,26 +8366,26 @@
       <c r="G391" s="2"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="17" t="s">
+      <c r="A392" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B392" s="18"/>
-      <c r="C392" s="18"/>
-      <c r="D392" s="18"/>
-      <c r="E392" s="18"/>
-      <c r="F392" s="18"/>
-      <c r="G392" s="19"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
+      <c r="D392" s="20"/>
+      <c r="E392" s="20"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="21"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="23" t="s">
+      <c r="A393" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B393" s="24"/>
-      <c r="C393" s="24"/>
-      <c r="D393" s="24"/>
-      <c r="E393" s="24"/>
-      <c r="F393" s="24"/>
-      <c r="G393" s="25"/>
+      <c r="B393" s="16"/>
+      <c r="C393" s="16"/>
+      <c r="D393" s="16"/>
+      <c r="E393" s="16"/>
+      <c r="F393" s="16"/>
+      <c r="G393" s="17"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
@@ -8492,26 +8498,26 @@
       <c r="G399" s="2"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="17" t="s">
+      <c r="A400" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
-      <c r="D400" s="18"/>
-      <c r="E400" s="18"/>
-      <c r="F400" s="18"/>
-      <c r="G400" s="19"/>
+      <c r="B400" s="20"/>
+      <c r="C400" s="20"/>
+      <c r="D400" s="20"/>
+      <c r="E400" s="20"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="21"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="23" t="s">
+      <c r="A401" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B401" s="24"/>
-      <c r="C401" s="24"/>
-      <c r="D401" s="24"/>
-      <c r="E401" s="24"/>
-      <c r="F401" s="24"/>
-      <c r="G401" s="25"/>
+      <c r="B401" s="16"/>
+      <c r="C401" s="16"/>
+      <c r="D401" s="16"/>
+      <c r="E401" s="16"/>
+      <c r="F401" s="16"/>
+      <c r="G401" s="17"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
@@ -8584,26 +8590,26 @@
       <c r="G405" s="2"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="17" t="s">
+      <c r="A406" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
-      <c r="D406" s="18"/>
-      <c r="E406" s="18"/>
-      <c r="F406" s="18"/>
-      <c r="G406" s="19"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
+      <c r="D406" s="20"/>
+      <c r="E406" s="20"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="21"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="23" t="s">
+      <c r="A407" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B407" s="24"/>
-      <c r="C407" s="24"/>
-      <c r="D407" s="24"/>
-      <c r="E407" s="24"/>
-      <c r="F407" s="24"/>
-      <c r="G407" s="25"/>
+      <c r="B407" s="16"/>
+      <c r="C407" s="16"/>
+      <c r="D407" s="16"/>
+      <c r="E407" s="16"/>
+      <c r="F407" s="16"/>
+      <c r="G407" s="17"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
@@ -8695,26 +8701,26 @@
       <c r="G412" s="2"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="17" t="s">
+      <c r="A413" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B413" s="18"/>
-      <c r="C413" s="18"/>
-      <c r="D413" s="18"/>
-      <c r="E413" s="18"/>
-      <c r="F413" s="18"/>
-      <c r="G413" s="19"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="20"/>
+      <c r="D413" s="20"/>
+      <c r="E413" s="20"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="21"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="23" t="s">
+      <c r="A414" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B414" s="24"/>
-      <c r="C414" s="24"/>
-      <c r="D414" s="24"/>
-      <c r="E414" s="24"/>
-      <c r="F414" s="24"/>
-      <c r="G414" s="25"/>
+      <c r="B414" s="16"/>
+      <c r="C414" s="16"/>
+      <c r="D414" s="16"/>
+      <c r="E414" s="16"/>
+      <c r="F414" s="16"/>
+      <c r="G414" s="17"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
@@ -8787,26 +8793,26 @@
       <c r="G418" s="2"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="17" t="s">
+      <c r="A419" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B419" s="18"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="18"/>
-      <c r="E419" s="18"/>
-      <c r="F419" s="18"/>
-      <c r="G419" s="19"/>
+      <c r="B419" s="20"/>
+      <c r="C419" s="20"/>
+      <c r="D419" s="20"/>
+      <c r="E419" s="20"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="21"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="23" t="s">
+      <c r="A420" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B420" s="24"/>
-      <c r="C420" s="24"/>
-      <c r="D420" s="24"/>
-      <c r="E420" s="24"/>
-      <c r="F420" s="24"/>
-      <c r="G420" s="25"/>
+      <c r="B420" s="16"/>
+      <c r="C420" s="16"/>
+      <c r="D420" s="16"/>
+      <c r="E420" s="16"/>
+      <c r="F420" s="16"/>
+      <c r="G420" s="17"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
@@ -8919,26 +8925,26 @@
       <c r="G426" s="2"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="17" t="s">
+      <c r="A427" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B427" s="18"/>
-      <c r="C427" s="18"/>
-      <c r="D427" s="18"/>
-      <c r="E427" s="18"/>
-      <c r="F427" s="18"/>
-      <c r="G427" s="19"/>
+      <c r="B427" s="20"/>
+      <c r="C427" s="20"/>
+      <c r="D427" s="20"/>
+      <c r="E427" s="20"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="21"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="23" t="s">
+      <c r="A428" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B428" s="24"/>
-      <c r="C428" s="24"/>
-      <c r="D428" s="24"/>
-      <c r="E428" s="24"/>
-      <c r="F428" s="24"/>
-      <c r="G428" s="25"/>
+      <c r="B428" s="16"/>
+      <c r="C428" s="16"/>
+      <c r="D428" s="16"/>
+      <c r="E428" s="16"/>
+      <c r="F428" s="16"/>
+      <c r="G428" s="17"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
@@ -9051,26 +9057,26 @@
       <c r="G434" s="2"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="17" t="s">
+      <c r="A435" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B435" s="18"/>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="19"/>
+      <c r="B435" s="20"/>
+      <c r="C435" s="20"/>
+      <c r="D435" s="20"/>
+      <c r="E435" s="20"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="21"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="23" t="s">
+      <c r="A436" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B436" s="24"/>
-      <c r="C436" s="24"/>
-      <c r="D436" s="24"/>
-      <c r="E436" s="24"/>
-      <c r="F436" s="24"/>
-      <c r="G436" s="25"/>
+      <c r="B436" s="16"/>
+      <c r="C436" s="16"/>
+      <c r="D436" s="16"/>
+      <c r="E436" s="16"/>
+      <c r="F436" s="16"/>
+      <c r="G436" s="17"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
@@ -9134,26 +9140,26 @@
       <c r="G439" s="5"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="15" t="s">
+      <c r="A441" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B441" s="16"/>
-      <c r="C441" s="16"/>
-      <c r="D441" s="16"/>
-      <c r="E441" s="16"/>
-      <c r="F441" s="16"/>
-      <c r="G441" s="16"/>
+      <c r="B441" s="22"/>
+      <c r="C441" s="22"/>
+      <c r="D441" s="22"/>
+      <c r="E441" s="22"/>
+      <c r="F441" s="22"/>
+      <c r="G441" s="22"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="15" t="s">
+      <c r="A442" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B442" s="15"/>
-      <c r="C442" s="15"/>
-      <c r="D442" s="15"/>
-      <c r="E442" s="15"/>
-      <c r="F442" s="15"/>
-      <c r="G442" s="15"/>
+      <c r="B442" s="18"/>
+      <c r="C442" s="18"/>
+      <c r="D442" s="18"/>
+      <c r="E442" s="18"/>
+      <c r="F442" s="18"/>
+      <c r="G442" s="18"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
@@ -9314,26 +9320,26 @@
       <c r="G450" s="10"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="15" t="s">
+      <c r="A452" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B452" s="16"/>
-      <c r="C452" s="16"/>
-      <c r="D452" s="16"/>
-      <c r="E452" s="16"/>
-      <c r="F452" s="16"/>
-      <c r="G452" s="16"/>
+      <c r="B452" s="22"/>
+      <c r="C452" s="22"/>
+      <c r="D452" s="22"/>
+      <c r="E452" s="22"/>
+      <c r="F452" s="22"/>
+      <c r="G452" s="22"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="15" t="s">
+      <c r="A453" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B453" s="15"/>
-      <c r="C453" s="15"/>
-      <c r="D453" s="15"/>
-      <c r="E453" s="15"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="15"/>
+      <c r="B453" s="18"/>
+      <c r="C453" s="18"/>
+      <c r="D453" s="18"/>
+      <c r="E453" s="18"/>
+      <c r="F453" s="18"/>
+      <c r="G453" s="18"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
@@ -9379,10 +9385,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="C456" s="9" t="s">
         <v>252</v>
@@ -9391,17 +9397,17 @@
         <v>249</v>
       </c>
       <c r="E456" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F456" s="10"/>
-      <c r="G456" s="10"/>
+        <v>252</v>
+      </c>
+      <c r="F456" s="9"/>
+      <c r="G456" s="9"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C457" s="9" t="s">
         <v>252</v>
@@ -9416,22 +9422,32 @@
       <c r="G457" s="10"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="12"/>
-      <c r="B458" s="12"/>
-      <c r="C458" s="12"/>
-      <c r="D458" s="12"/>
-      <c r="E458" s="12"/>
-      <c r="F458" s="13"/>
-      <c r="G458" s="13"/>
+      <c r="A458" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B458" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E458" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F458" s="10"/>
+      <c r="G458" s="10"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
-      <c r="C459" s="14"/>
+      <c r="C459" s="12"/>
       <c r="D459" s="12"/>
       <c r="E459" s="12"/>
-      <c r="F459" s="13"/>
-      <c r="G459" s="13"/>
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
@@ -9443,16 +9459,194 @@
       <c r="G460" s="13"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="12"/>
-      <c r="B461" s="12"/>
-      <c r="C461" s="12"/>
-      <c r="D461" s="12"/>
-      <c r="E461" s="12"/>
-      <c r="F461" s="6"/>
-      <c r="G461" s="13"/>
+      <c r="A461" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B461" s="22"/>
+      <c r="C461" s="22"/>
+      <c r="D461" s="22"/>
+      <c r="E461" s="22"/>
+      <c r="F461" s="22"/>
+      <c r="G461" s="22"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
+      <c r="D462" s="20"/>
+      <c r="E462" s="20"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="21"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D463" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E463" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F463" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G463" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B464" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E464" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F464" s="10"/>
+      <c r="G464" s="10"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E465" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F465" s="10"/>
+      <c r="G465" s="10"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="12"/>
+      <c r="B466" s="12"/>
+      <c r="C466" s="12"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="12"/>
+      <c r="F466" s="13"/>
+      <c r="G466" s="13"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="13"/>
+      <c r="B467" s="13"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13"/>
+      <c r="E467" s="13"/>
+      <c r="F467" s="13"/>
+      <c r="G467" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="110">
+    <mergeCell ref="A461:G461"/>
+    <mergeCell ref="A462:G462"/>
+    <mergeCell ref="A452:G452"/>
+    <mergeCell ref="A453:G453"/>
+    <mergeCell ref="A413:G413"/>
+    <mergeCell ref="A435:G435"/>
+    <mergeCell ref="A419:G419"/>
+    <mergeCell ref="A427:G427"/>
+    <mergeCell ref="A370:G370"/>
+    <mergeCell ref="A377:G377"/>
+    <mergeCell ref="A385:G385"/>
+    <mergeCell ref="A392:G392"/>
+    <mergeCell ref="A400:G400"/>
+    <mergeCell ref="A414:G414"/>
+    <mergeCell ref="A420:G420"/>
+    <mergeCell ref="A428:G428"/>
+    <mergeCell ref="A441:G441"/>
+    <mergeCell ref="A442:G442"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A261:G261"/>
+    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A334:G334"/>
+    <mergeCell ref="A328:G328"/>
+    <mergeCell ref="A313:G313"/>
+    <mergeCell ref="A319:G319"/>
+    <mergeCell ref="A206:G206"/>
+    <mergeCell ref="A262:G262"/>
+    <mergeCell ref="A271:G271"/>
+    <mergeCell ref="A279:G279"/>
+    <mergeCell ref="A287:G287"/>
+    <mergeCell ref="A306:G306"/>
+    <mergeCell ref="A314:G314"/>
+    <mergeCell ref="A286:G286"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A254:G254"/>
+    <mergeCell ref="A253:G253"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="A221:G221"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A237:G237"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A207:G207"/>
+    <mergeCell ref="A222:G222"/>
+    <mergeCell ref="A232:G232"/>
+    <mergeCell ref="A238:G238"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A436:G436"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A371:G371"/>
+    <mergeCell ref="A378:G378"/>
+    <mergeCell ref="A386:G386"/>
+    <mergeCell ref="A393:G393"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="A407:G407"/>
+    <mergeCell ref="A406:G406"/>
+    <mergeCell ref="A320:G320"/>
+    <mergeCell ref="A329:G329"/>
+    <mergeCell ref="A335:G335"/>
+    <mergeCell ref="A345:G345"/>
+    <mergeCell ref="A353:G353"/>
+    <mergeCell ref="A363:G363"/>
+    <mergeCell ref="A344:G344"/>
+    <mergeCell ref="A362:G362"/>
+    <mergeCell ref="A352:G352"/>
+    <mergeCell ref="A107:G107"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A24:G24"/>
@@ -9477,90 +9671,6 @@
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A137:G137"/>
     <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A436:G436"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A371:G371"/>
-    <mergeCell ref="A378:G378"/>
-    <mergeCell ref="A386:G386"/>
-    <mergeCell ref="A393:G393"/>
-    <mergeCell ref="A401:G401"/>
-    <mergeCell ref="A407:G407"/>
-    <mergeCell ref="A406:G406"/>
-    <mergeCell ref="A320:G320"/>
-    <mergeCell ref="A329:G329"/>
-    <mergeCell ref="A335:G335"/>
-    <mergeCell ref="A345:G345"/>
-    <mergeCell ref="A353:G353"/>
-    <mergeCell ref="A363:G363"/>
-    <mergeCell ref="A344:G344"/>
-    <mergeCell ref="A362:G362"/>
-    <mergeCell ref="A352:G352"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A161:G161"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="A199:G199"/>
-    <mergeCell ref="A221:G221"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A244:G244"/>
-    <mergeCell ref="A237:G237"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A187:G187"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A207:G207"/>
-    <mergeCell ref="A222:G222"/>
-    <mergeCell ref="A232:G232"/>
-    <mergeCell ref="A238:G238"/>
-    <mergeCell ref="A168:G168"/>
-    <mergeCell ref="A174:G174"/>
-    <mergeCell ref="A181:G181"/>
-    <mergeCell ref="A188:G188"/>
-    <mergeCell ref="A194:G194"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A261:G261"/>
-    <mergeCell ref="A270:G270"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A334:G334"/>
-    <mergeCell ref="A328:G328"/>
-    <mergeCell ref="A313:G313"/>
-    <mergeCell ref="A319:G319"/>
-    <mergeCell ref="A206:G206"/>
-    <mergeCell ref="A262:G262"/>
-    <mergeCell ref="A271:G271"/>
-    <mergeCell ref="A279:G279"/>
-    <mergeCell ref="A287:G287"/>
-    <mergeCell ref="A306:G306"/>
-    <mergeCell ref="A314:G314"/>
-    <mergeCell ref="A286:G286"/>
-    <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A254:G254"/>
-    <mergeCell ref="A253:G253"/>
-    <mergeCell ref="A452:G452"/>
-    <mergeCell ref="A453:G453"/>
-    <mergeCell ref="A413:G413"/>
-    <mergeCell ref="A435:G435"/>
-    <mergeCell ref="A419:G419"/>
-    <mergeCell ref="A427:G427"/>
-    <mergeCell ref="A370:G370"/>
-    <mergeCell ref="A377:G377"/>
-    <mergeCell ref="A385:G385"/>
-    <mergeCell ref="A392:G392"/>
-    <mergeCell ref="A400:G400"/>
-    <mergeCell ref="A414:G414"/>
-    <mergeCell ref="A420:G420"/>
-    <mergeCell ref="A428:G428"/>
-    <mergeCell ref="A441:G441"/>
-    <mergeCell ref="A442:G442"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/dicionario/dicionario_de_dados.xltx.xlsx
+++ b/database/dicionario/dicionario_de_dados.xltx.xlsx
@@ -816,13 +816,13 @@
     <t>VARCHAR(2400)</t>
   </si>
   <si>
-    <t>Tabela: tbl_topico_empresa-</t>
-  </si>
-  <si>
-    <t>id_topico_empresa</t>
-  </si>
-  <si>
-    <t>topico_empresa</t>
+    <t>Tabela: tbl_topico_sobre_empresa-</t>
+  </si>
+  <si>
+    <t>id_topico_sobre_empresa</t>
+  </si>
+  <si>
+    <t>topico_sobre_empresa</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1477,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1489,28 +1510,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:G467"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A444" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J462" sqref="J462"/>
+      <selection activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,26 +1885,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2148,26 +2148,26 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2259,26 +2259,26 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2469,26 +2469,26 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2713,26 +2713,26 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2805,26 +2805,26 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2897,26 +2897,26 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -3103,26 +3103,26 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3195,26 +3195,26 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3367,26 +3367,26 @@
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3691,26 +3691,26 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="21"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3783,26 +3783,26 @@
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="18"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="17"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -3953,26 +3953,26 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="17"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4045,26 +4045,26 @@
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="18"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="17"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4175,26 +4175,26 @@
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="21"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="18"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="17"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -4326,26 +4326,26 @@
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="21"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="17"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -4418,26 +4418,26 @@
       <c r="G151" s="2"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="21"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="18"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="17"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -4550,26 +4550,26 @@
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="19" t="s">
+      <c r="A160" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="21"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="18"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="17"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
@@ -4661,26 +4661,26 @@
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="21"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="17"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
@@ -4753,26 +4753,26 @@
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="21"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="18"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="17"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
@@ -4864,26 +4864,26 @@
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="19" t="s">
+      <c r="A180" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="21"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="18"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B181" s="16"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="17"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
@@ -4975,26 +4975,26 @@
       <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="19" t="s">
+      <c r="A187" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="21"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="18"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="17"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="24"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -5067,26 +5067,26 @@
       <c r="G192" s="2"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="19" t="s">
+      <c r="A193" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="21"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="18"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="15" t="s">
+      <c r="A194" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B194" s="16"/>
-      <c r="C194" s="16"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="17"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -5159,26 +5159,26 @@
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="19" t="s">
+      <c r="A199" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="21"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="18"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B200" s="16"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="17"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="24"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
@@ -5270,26 +5270,26 @@
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="21"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="18"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="15" t="s">
+      <c r="A207" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="17"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="24"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
@@ -5535,26 +5535,26 @@
       <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="19" t="s">
+      <c r="A221" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="21"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="18"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B222" s="16"/>
-      <c r="C222" s="16"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="16"/>
-      <c r="F222" s="16"/>
-      <c r="G222" s="17"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="24"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5703,26 +5703,26 @@
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="20"/>
-      <c r="E231" s="20"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="21"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="18"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="17"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="24"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
@@ -5795,26 +5795,26 @@
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="20"/>
-      <c r="E237" s="20"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="21"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="18"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="17"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="23"/>
+      <c r="G238" s="24"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
@@ -5906,26 +5906,26 @@
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="19" t="s">
+      <c r="A244" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
-      <c r="D244" s="20"/>
-      <c r="E244" s="20"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="21"/>
+      <c r="B244" s="17"/>
+      <c r="C244" s="17"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="18"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B245" s="16"/>
-      <c r="C245" s="16"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="17"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23"/>
+      <c r="G245" s="24"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
@@ -6057,26 +6057,26 @@
       <c r="G252" s="2"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="19" t="s">
+      <c r="A253" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="20"/>
-      <c r="E253" s="20"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="21"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="18"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="15" t="s">
+      <c r="A254" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B254" s="16"/>
-      <c r="C254" s="16"/>
-      <c r="D254" s="16"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="17"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="23"/>
+      <c r="G254" s="24"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
@@ -6187,26 +6187,26 @@
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="19" t="s">
+      <c r="A261" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B261" s="20"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="20"/>
-      <c r="E261" s="20"/>
-      <c r="F261" s="20"/>
-      <c r="G261" s="21"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="18"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="15" t="s">
+      <c r="A262" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="16"/>
-      <c r="C262" s="16"/>
-      <c r="D262" s="16"/>
-      <c r="E262" s="16"/>
-      <c r="F262" s="16"/>
-      <c r="G262" s="17"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="23"/>
+      <c r="F262" s="23"/>
+      <c r="G262" s="24"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
@@ -6336,26 +6336,26 @@
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="19" t="s">
+      <c r="A270" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B270" s="20"/>
-      <c r="C270" s="20"/>
-      <c r="D270" s="20"/>
-      <c r="E270" s="20"/>
-      <c r="F270" s="20"/>
-      <c r="G270" s="21"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="17"/>
+      <c r="D270" s="17"/>
+      <c r="E270" s="17"/>
+      <c r="F270" s="17"/>
+      <c r="G270" s="18"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B271" s="16"/>
-      <c r="C271" s="16"/>
-      <c r="D271" s="16"/>
-      <c r="E271" s="16"/>
-      <c r="F271" s="16"/>
-      <c r="G271" s="17"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="23"/>
+      <c r="G271" s="24"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
@@ -6468,26 +6468,26 @@
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="19" t="s">
+      <c r="A278" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B278" s="20"/>
-      <c r="C278" s="20"/>
-      <c r="D278" s="20"/>
-      <c r="E278" s="20"/>
-      <c r="F278" s="20"/>
-      <c r="G278" s="21"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="17"/>
+      <c r="F278" s="17"/>
+      <c r="G278" s="18"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="16"/>
-      <c r="C279" s="16"/>
-      <c r="D279" s="16"/>
-      <c r="E279" s="16"/>
-      <c r="F279" s="16"/>
-      <c r="G279" s="17"/>
+      <c r="B279" s="23"/>
+      <c r="C279" s="23"/>
+      <c r="D279" s="23"/>
+      <c r="E279" s="23"/>
+      <c r="F279" s="23"/>
+      <c r="G279" s="24"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
@@ -6598,26 +6598,26 @@
       <c r="G285" s="2"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="19" t="s">
+      <c r="A286" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B286" s="20"/>
-      <c r="C286" s="20"/>
-      <c r="D286" s="20"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="20"/>
-      <c r="G286" s="21"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+      <c r="F286" s="17"/>
+      <c r="G286" s="18"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B287" s="16"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="16"/>
-      <c r="G287" s="17"/>
+      <c r="B287" s="23"/>
+      <c r="C287" s="23"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="23"/>
+      <c r="F287" s="23"/>
+      <c r="G287" s="24"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
@@ -6937,26 +6937,26 @@
       <c r="G304" s="2"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="19" t="s">
+      <c r="A305" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B305" s="20"/>
-      <c r="C305" s="20"/>
-      <c r="D305" s="20"/>
-      <c r="E305" s="20"/>
-      <c r="F305" s="20"/>
-      <c r="G305" s="21"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="17"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="17"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="18"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B306" s="16"/>
-      <c r="C306" s="16"/>
-      <c r="D306" s="16"/>
-      <c r="E306" s="16"/>
-      <c r="F306" s="16"/>
-      <c r="G306" s="17"/>
+      <c r="B306" s="23"/>
+      <c r="C306" s="23"/>
+      <c r="D306" s="23"/>
+      <c r="E306" s="23"/>
+      <c r="F306" s="23"/>
+      <c r="G306" s="24"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
@@ -7071,26 +7071,26 @@
       <c r="G312" s="2"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="19" t="s">
+      <c r="A313" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B313" s="20"/>
-      <c r="C313" s="20"/>
-      <c r="D313" s="20"/>
-      <c r="E313" s="20"/>
-      <c r="F313" s="20"/>
-      <c r="G313" s="21"/>
+      <c r="B313" s="17"/>
+      <c r="C313" s="17"/>
+      <c r="D313" s="17"/>
+      <c r="E313" s="17"/>
+      <c r="F313" s="17"/>
+      <c r="G313" s="18"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="15" t="s">
+      <c r="A314" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B314" s="16"/>
-      <c r="C314" s="16"/>
-      <c r="D314" s="16"/>
-      <c r="E314" s="16"/>
-      <c r="F314" s="16"/>
-      <c r="G314" s="17"/>
+      <c r="B314" s="23"/>
+      <c r="C314" s="23"/>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="23"/>
+      <c r="G314" s="24"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
@@ -7163,26 +7163,26 @@
       <c r="G318" s="2"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="19" t="s">
+      <c r="A319" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B319" s="20"/>
-      <c r="C319" s="20"/>
-      <c r="D319" s="20"/>
-      <c r="E319" s="20"/>
-      <c r="F319" s="20"/>
-      <c r="G319" s="21"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="17"/>
+      <c r="D319" s="17"/>
+      <c r="E319" s="17"/>
+      <c r="F319" s="17"/>
+      <c r="G319" s="18"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="15" t="s">
+      <c r="A320" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
-      <c r="D320" s="16"/>
-      <c r="E320" s="16"/>
-      <c r="F320" s="16"/>
-      <c r="G320" s="17"/>
+      <c r="B320" s="23"/>
+      <c r="C320" s="23"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="23"/>
+      <c r="F320" s="23"/>
+      <c r="G320" s="24"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
@@ -7314,26 +7314,26 @@
       <c r="G327" s="2"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="19" t="s">
+      <c r="A328" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="20"/>
-      <c r="E328" s="20"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="21"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="17"/>
+      <c r="D328" s="17"/>
+      <c r="E328" s="17"/>
+      <c r="F328" s="17"/>
+      <c r="G328" s="18"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="15" t="s">
+      <c r="A329" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B329" s="16"/>
-      <c r="C329" s="16"/>
-      <c r="D329" s="16"/>
-      <c r="E329" s="16"/>
-      <c r="F329" s="16"/>
-      <c r="G329" s="17"/>
+      <c r="B329" s="23"/>
+      <c r="C329" s="23"/>
+      <c r="D329" s="23"/>
+      <c r="E329" s="23"/>
+      <c r="F329" s="23"/>
+      <c r="G329" s="24"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
@@ -7406,26 +7406,26 @@
       <c r="G333" s="2"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="19" t="s">
+      <c r="A334" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B334" s="20"/>
-      <c r="C334" s="20"/>
-      <c r="D334" s="20"/>
-      <c r="E334" s="20"/>
-      <c r="F334" s="20"/>
-      <c r="G334" s="21"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="17"/>
+      <c r="D334" s="17"/>
+      <c r="E334" s="17"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="18"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="15" t="s">
+      <c r="A335" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B335" s="16"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
-      <c r="E335" s="16"/>
-      <c r="F335" s="16"/>
-      <c r="G335" s="17"/>
+      <c r="B335" s="23"/>
+      <c r="C335" s="23"/>
+      <c r="D335" s="23"/>
+      <c r="E335" s="23"/>
+      <c r="F335" s="23"/>
+      <c r="G335" s="24"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
@@ -7578,26 +7578,26 @@
       <c r="G343" s="2"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="19" t="s">
+      <c r="A344" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B344" s="20"/>
-      <c r="C344" s="20"/>
-      <c r="D344" s="20"/>
-      <c r="E344" s="20"/>
-      <c r="F344" s="20"/>
-      <c r="G344" s="21"/>
+      <c r="B344" s="17"/>
+      <c r="C344" s="17"/>
+      <c r="D344" s="17"/>
+      <c r="E344" s="17"/>
+      <c r="F344" s="17"/>
+      <c r="G344" s="18"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="15" t="s">
+      <c r="A345" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B345" s="16"/>
-      <c r="C345" s="16"/>
-      <c r="D345" s="16"/>
-      <c r="E345" s="16"/>
-      <c r="F345" s="16"/>
-      <c r="G345" s="17"/>
+      <c r="B345" s="23"/>
+      <c r="C345" s="23"/>
+      <c r="D345" s="23"/>
+      <c r="E345" s="23"/>
+      <c r="F345" s="23"/>
+      <c r="G345" s="24"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
@@ -7710,26 +7710,26 @@
       <c r="G351" s="2"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="19" t="s">
+      <c r="A352" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B352" s="20"/>
-      <c r="C352" s="20"/>
-      <c r="D352" s="20"/>
-      <c r="E352" s="20"/>
-      <c r="F352" s="20"/>
-      <c r="G352" s="21"/>
+      <c r="B352" s="17"/>
+      <c r="C352" s="17"/>
+      <c r="D352" s="17"/>
+      <c r="E352" s="17"/>
+      <c r="F352" s="17"/>
+      <c r="G352" s="18"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="15" t="s">
+      <c r="A353" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B353" s="16"/>
-      <c r="C353" s="16"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="16"/>
-      <c r="F353" s="16"/>
-      <c r="G353" s="17"/>
+      <c r="B353" s="23"/>
+      <c r="C353" s="23"/>
+      <c r="D353" s="23"/>
+      <c r="E353" s="23"/>
+      <c r="F353" s="23"/>
+      <c r="G353" s="24"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
@@ -7880,26 +7880,26 @@
       <c r="G361" s="2"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="19" t="s">
+      <c r="A362" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B362" s="20"/>
-      <c r="C362" s="20"/>
-      <c r="D362" s="20"/>
-      <c r="E362" s="20"/>
-      <c r="F362" s="20"/>
-      <c r="G362" s="21"/>
+      <c r="B362" s="17"/>
+      <c r="C362" s="17"/>
+      <c r="D362" s="17"/>
+      <c r="E362" s="17"/>
+      <c r="F362" s="17"/>
+      <c r="G362" s="18"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="15" t="s">
+      <c r="A363" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B363" s="16"/>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
-      <c r="E363" s="16"/>
-      <c r="F363" s="16"/>
-      <c r="G363" s="17"/>
+      <c r="B363" s="23"/>
+      <c r="C363" s="23"/>
+      <c r="D363" s="23"/>
+      <c r="E363" s="23"/>
+      <c r="F363" s="23"/>
+      <c r="G363" s="24"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
@@ -8012,26 +8012,26 @@
       <c r="G369" s="2"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="23" t="s">
+      <c r="A370" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B370" s="24"/>
-      <c r="C370" s="24"/>
-      <c r="D370" s="24"/>
-      <c r="E370" s="24"/>
-      <c r="F370" s="24"/>
-      <c r="G370" s="25"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="20"/>
+      <c r="D370" s="20"/>
+      <c r="E370" s="20"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="21"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="15" t="s">
+      <c r="A371" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B371" s="16"/>
-      <c r="C371" s="16"/>
-      <c r="D371" s="16"/>
-      <c r="E371" s="16"/>
-      <c r="F371" s="16"/>
-      <c r="G371" s="17"/>
+      <c r="B371" s="23"/>
+      <c r="C371" s="23"/>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23"/>
+      <c r="F371" s="23"/>
+      <c r="G371" s="24"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
@@ -8123,26 +8123,26 @@
       <c r="G376" s="2"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="23" t="s">
+      <c r="A377" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B377" s="24"/>
-      <c r="C377" s="24"/>
-      <c r="D377" s="24"/>
-      <c r="E377" s="24"/>
-      <c r="F377" s="24"/>
-      <c r="G377" s="25"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="20"/>
+      <c r="D377" s="20"/>
+      <c r="E377" s="20"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="21"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="15" t="s">
+      <c r="A378" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B378" s="16"/>
-      <c r="C378" s="16"/>
-      <c r="D378" s="16"/>
-      <c r="E378" s="16"/>
-      <c r="F378" s="16"/>
-      <c r="G378" s="17"/>
+      <c r="B378" s="23"/>
+      <c r="C378" s="23"/>
+      <c r="D378" s="23"/>
+      <c r="E378" s="23"/>
+      <c r="F378" s="23"/>
+      <c r="G378" s="24"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
@@ -8255,26 +8255,26 @@
       <c r="G384" s="2"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="19" t="s">
+      <c r="A385" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B385" s="20"/>
-      <c r="C385" s="20"/>
-      <c r="D385" s="20"/>
-      <c r="E385" s="20"/>
-      <c r="F385" s="20"/>
-      <c r="G385" s="21"/>
+      <c r="B385" s="17"/>
+      <c r="C385" s="17"/>
+      <c r="D385" s="17"/>
+      <c r="E385" s="17"/>
+      <c r="F385" s="17"/>
+      <c r="G385" s="18"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="15" t="s">
+      <c r="A386" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B386" s="16"/>
-      <c r="C386" s="16"/>
-      <c r="D386" s="16"/>
-      <c r="E386" s="16"/>
-      <c r="F386" s="16"/>
-      <c r="G386" s="17"/>
+      <c r="B386" s="23"/>
+      <c r="C386" s="23"/>
+      <c r="D386" s="23"/>
+      <c r="E386" s="23"/>
+      <c r="F386" s="23"/>
+      <c r="G386" s="24"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
@@ -8366,26 +8366,26 @@
       <c r="G391" s="2"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="19" t="s">
+      <c r="A392" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B392" s="20"/>
-      <c r="C392" s="20"/>
-      <c r="D392" s="20"/>
-      <c r="E392" s="20"/>
-      <c r="F392" s="20"/>
-      <c r="G392" s="21"/>
+      <c r="B392" s="17"/>
+      <c r="C392" s="17"/>
+      <c r="D392" s="17"/>
+      <c r="E392" s="17"/>
+      <c r="F392" s="17"/>
+      <c r="G392" s="18"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="15" t="s">
+      <c r="A393" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B393" s="16"/>
-      <c r="C393" s="16"/>
-      <c r="D393" s="16"/>
-      <c r="E393" s="16"/>
-      <c r="F393" s="16"/>
-      <c r="G393" s="17"/>
+      <c r="B393" s="23"/>
+      <c r="C393" s="23"/>
+      <c r="D393" s="23"/>
+      <c r="E393" s="23"/>
+      <c r="F393" s="23"/>
+      <c r="G393" s="24"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
@@ -8498,26 +8498,26 @@
       <c r="G399" s="2"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="19" t="s">
+      <c r="A400" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B400" s="20"/>
-      <c r="C400" s="20"/>
-      <c r="D400" s="20"/>
-      <c r="E400" s="20"/>
-      <c r="F400" s="20"/>
-      <c r="G400" s="21"/>
+      <c r="B400" s="17"/>
+      <c r="C400" s="17"/>
+      <c r="D400" s="17"/>
+      <c r="E400" s="17"/>
+      <c r="F400" s="17"/>
+      <c r="G400" s="18"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="15" t="s">
+      <c r="A401" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B401" s="16"/>
-      <c r="C401" s="16"/>
-      <c r="D401" s="16"/>
-      <c r="E401" s="16"/>
-      <c r="F401" s="16"/>
-      <c r="G401" s="17"/>
+      <c r="B401" s="23"/>
+      <c r="C401" s="23"/>
+      <c r="D401" s="23"/>
+      <c r="E401" s="23"/>
+      <c r="F401" s="23"/>
+      <c r="G401" s="24"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
@@ -8590,26 +8590,26 @@
       <c r="G405" s="2"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="19" t="s">
+      <c r="A406" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B406" s="20"/>
-      <c r="C406" s="20"/>
-      <c r="D406" s="20"/>
-      <c r="E406" s="20"/>
-      <c r="F406" s="20"/>
-      <c r="G406" s="21"/>
+      <c r="B406" s="17"/>
+      <c r="C406" s="17"/>
+      <c r="D406" s="17"/>
+      <c r="E406" s="17"/>
+      <c r="F406" s="17"/>
+      <c r="G406" s="18"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="15" t="s">
+      <c r="A407" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B407" s="16"/>
-      <c r="C407" s="16"/>
-      <c r="D407" s="16"/>
-      <c r="E407" s="16"/>
-      <c r="F407" s="16"/>
-      <c r="G407" s="17"/>
+      <c r="B407" s="23"/>
+      <c r="C407" s="23"/>
+      <c r="D407" s="23"/>
+      <c r="E407" s="23"/>
+      <c r="F407" s="23"/>
+      <c r="G407" s="24"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
@@ -8701,26 +8701,26 @@
       <c r="G412" s="2"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="19" t="s">
+      <c r="A413" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B413" s="20"/>
-      <c r="C413" s="20"/>
-      <c r="D413" s="20"/>
-      <c r="E413" s="20"/>
-      <c r="F413" s="20"/>
-      <c r="G413" s="21"/>
+      <c r="B413" s="17"/>
+      <c r="C413" s="17"/>
+      <c r="D413" s="17"/>
+      <c r="E413" s="17"/>
+      <c r="F413" s="17"/>
+      <c r="G413" s="18"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="15" t="s">
+      <c r="A414" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B414" s="16"/>
-      <c r="C414" s="16"/>
-      <c r="D414" s="16"/>
-      <c r="E414" s="16"/>
-      <c r="F414" s="16"/>
-      <c r="G414" s="17"/>
+      <c r="B414" s="23"/>
+      <c r="C414" s="23"/>
+      <c r="D414" s="23"/>
+      <c r="E414" s="23"/>
+      <c r="F414" s="23"/>
+      <c r="G414" s="24"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
@@ -8793,26 +8793,26 @@
       <c r="G418" s="2"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="19" t="s">
+      <c r="A419" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B419" s="20"/>
-      <c r="C419" s="20"/>
-      <c r="D419" s="20"/>
-      <c r="E419" s="20"/>
-      <c r="F419" s="20"/>
-      <c r="G419" s="21"/>
+      <c r="B419" s="17"/>
+      <c r="C419" s="17"/>
+      <c r="D419" s="17"/>
+      <c r="E419" s="17"/>
+      <c r="F419" s="17"/>
+      <c r="G419" s="18"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="15" t="s">
+      <c r="A420" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B420" s="16"/>
-      <c r="C420" s="16"/>
-      <c r="D420" s="16"/>
-      <c r="E420" s="16"/>
-      <c r="F420" s="16"/>
-      <c r="G420" s="17"/>
+      <c r="B420" s="23"/>
+      <c r="C420" s="23"/>
+      <c r="D420" s="23"/>
+      <c r="E420" s="23"/>
+      <c r="F420" s="23"/>
+      <c r="G420" s="24"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
@@ -8925,26 +8925,26 @@
       <c r="G426" s="2"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="19" t="s">
+      <c r="A427" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B427" s="20"/>
-      <c r="C427" s="20"/>
-      <c r="D427" s="20"/>
-      <c r="E427" s="20"/>
-      <c r="F427" s="20"/>
-      <c r="G427" s="21"/>
+      <c r="B427" s="17"/>
+      <c r="C427" s="17"/>
+      <c r="D427" s="17"/>
+      <c r="E427" s="17"/>
+      <c r="F427" s="17"/>
+      <c r="G427" s="18"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="15" t="s">
+      <c r="A428" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B428" s="16"/>
-      <c r="C428" s="16"/>
-      <c r="D428" s="16"/>
-      <c r="E428" s="16"/>
-      <c r="F428" s="16"/>
-      <c r="G428" s="17"/>
+      <c r="B428" s="23"/>
+      <c r="C428" s="23"/>
+      <c r="D428" s="23"/>
+      <c r="E428" s="23"/>
+      <c r="F428" s="23"/>
+      <c r="G428" s="24"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
@@ -9057,26 +9057,26 @@
       <c r="G434" s="2"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="19" t="s">
+      <c r="A435" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B435" s="20"/>
-      <c r="C435" s="20"/>
-      <c r="D435" s="20"/>
-      <c r="E435" s="20"/>
-      <c r="F435" s="20"/>
-      <c r="G435" s="21"/>
+      <c r="B435" s="17"/>
+      <c r="C435" s="17"/>
+      <c r="D435" s="17"/>
+      <c r="E435" s="17"/>
+      <c r="F435" s="17"/>
+      <c r="G435" s="18"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="15" t="s">
+      <c r="A436" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B436" s="16"/>
-      <c r="C436" s="16"/>
-      <c r="D436" s="16"/>
-      <c r="E436" s="16"/>
-      <c r="F436" s="16"/>
-      <c r="G436" s="17"/>
+      <c r="B436" s="23"/>
+      <c r="C436" s="23"/>
+      <c r="D436" s="23"/>
+      <c r="E436" s="23"/>
+      <c r="F436" s="23"/>
+      <c r="G436" s="24"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
@@ -9140,26 +9140,26 @@
       <c r="G439" s="5"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="18" t="s">
+      <c r="A441" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B441" s="22"/>
-      <c r="C441" s="22"/>
-      <c r="D441" s="22"/>
-      <c r="E441" s="22"/>
-      <c r="F441" s="22"/>
-      <c r="G441" s="22"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="15"/>
+      <c r="D441" s="15"/>
+      <c r="E441" s="15"/>
+      <c r="F441" s="15"/>
+      <c r="G441" s="15"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="18" t="s">
+      <c r="A442" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B442" s="18"/>
-      <c r="C442" s="18"/>
-      <c r="D442" s="18"/>
-      <c r="E442" s="18"/>
-      <c r="F442" s="18"/>
-      <c r="G442" s="18"/>
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="14"/>
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
@@ -9320,26 +9320,26 @@
       <c r="G450" s="10"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="18" t="s">
+      <c r="A452" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B452" s="22"/>
-      <c r="C452" s="22"/>
-      <c r="D452" s="22"/>
-      <c r="E452" s="22"/>
-      <c r="F452" s="22"/>
-      <c r="G452" s="22"/>
+      <c r="B452" s="15"/>
+      <c r="C452" s="15"/>
+      <c r="D452" s="15"/>
+      <c r="E452" s="15"/>
+      <c r="F452" s="15"/>
+      <c r="G452" s="15"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="18" t="s">
+      <c r="A453" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B453" s="18"/>
-      <c r="C453" s="18"/>
-      <c r="D453" s="18"/>
-      <c r="E453" s="18"/>
-      <c r="F453" s="18"/>
-      <c r="G453" s="18"/>
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
@@ -9459,26 +9459,26 @@
       <c r="G460" s="13"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="18" t="s">
+      <c r="A461" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B461" s="22"/>
-      <c r="C461" s="22"/>
-      <c r="D461" s="22"/>
-      <c r="E461" s="22"/>
-      <c r="F461" s="22"/>
-      <c r="G461" s="22"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="15"/>
+      <c r="D461" s="15"/>
+      <c r="E461" s="15"/>
+      <c r="F461" s="15"/>
+      <c r="G461" s="15"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="19" t="s">
+      <c r="A462" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B462" s="20"/>
-      <c r="C462" s="20"/>
-      <c r="D462" s="20"/>
-      <c r="E462" s="20"/>
-      <c r="F462" s="20"/>
-      <c r="G462" s="21"/>
+      <c r="B462" s="17"/>
+      <c r="C462" s="17"/>
+      <c r="D462" s="17"/>
+      <c r="E462" s="17"/>
+      <c r="F462" s="17"/>
+      <c r="G462" s="18"/>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="8" t="s">
@@ -9561,44 +9561,54 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A461:G461"/>
-    <mergeCell ref="A462:G462"/>
-    <mergeCell ref="A452:G452"/>
-    <mergeCell ref="A453:G453"/>
-    <mergeCell ref="A413:G413"/>
-    <mergeCell ref="A435:G435"/>
-    <mergeCell ref="A419:G419"/>
-    <mergeCell ref="A427:G427"/>
-    <mergeCell ref="A370:G370"/>
-    <mergeCell ref="A377:G377"/>
-    <mergeCell ref="A385:G385"/>
-    <mergeCell ref="A392:G392"/>
-    <mergeCell ref="A400:G400"/>
-    <mergeCell ref="A414:G414"/>
-    <mergeCell ref="A420:G420"/>
-    <mergeCell ref="A428:G428"/>
-    <mergeCell ref="A441:G441"/>
-    <mergeCell ref="A442:G442"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A261:G261"/>
-    <mergeCell ref="A270:G270"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A334:G334"/>
-    <mergeCell ref="A328:G328"/>
-    <mergeCell ref="A313:G313"/>
-    <mergeCell ref="A319:G319"/>
-    <mergeCell ref="A206:G206"/>
-    <mergeCell ref="A262:G262"/>
-    <mergeCell ref="A271:G271"/>
-    <mergeCell ref="A279:G279"/>
-    <mergeCell ref="A287:G287"/>
-    <mergeCell ref="A306:G306"/>
-    <mergeCell ref="A314:G314"/>
-    <mergeCell ref="A286:G286"/>
-    <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A254:G254"/>
-    <mergeCell ref="A253:G253"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A436:G436"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A371:G371"/>
+    <mergeCell ref="A378:G378"/>
+    <mergeCell ref="A386:G386"/>
+    <mergeCell ref="A393:G393"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="A407:G407"/>
+    <mergeCell ref="A406:G406"/>
+    <mergeCell ref="A320:G320"/>
+    <mergeCell ref="A329:G329"/>
+    <mergeCell ref="A335:G335"/>
+    <mergeCell ref="A345:G345"/>
+    <mergeCell ref="A353:G353"/>
+    <mergeCell ref="A363:G363"/>
+    <mergeCell ref="A344:G344"/>
+    <mergeCell ref="A362:G362"/>
+    <mergeCell ref="A352:G352"/>
+    <mergeCell ref="A107:G107"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A161:G161"/>
     <mergeCell ref="A146:G146"/>
@@ -9623,54 +9633,44 @@
     <mergeCell ref="A181:G181"/>
     <mergeCell ref="A188:G188"/>
     <mergeCell ref="A194:G194"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A436:G436"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A371:G371"/>
-    <mergeCell ref="A378:G378"/>
-    <mergeCell ref="A386:G386"/>
-    <mergeCell ref="A393:G393"/>
-    <mergeCell ref="A401:G401"/>
-    <mergeCell ref="A407:G407"/>
-    <mergeCell ref="A406:G406"/>
-    <mergeCell ref="A320:G320"/>
-    <mergeCell ref="A329:G329"/>
-    <mergeCell ref="A335:G335"/>
-    <mergeCell ref="A345:G345"/>
-    <mergeCell ref="A353:G353"/>
-    <mergeCell ref="A363:G363"/>
-    <mergeCell ref="A344:G344"/>
-    <mergeCell ref="A362:G362"/>
-    <mergeCell ref="A352:G352"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A89:G89"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A261:G261"/>
+    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A334:G334"/>
+    <mergeCell ref="A328:G328"/>
+    <mergeCell ref="A313:G313"/>
+    <mergeCell ref="A319:G319"/>
+    <mergeCell ref="A206:G206"/>
+    <mergeCell ref="A262:G262"/>
+    <mergeCell ref="A271:G271"/>
+    <mergeCell ref="A279:G279"/>
+    <mergeCell ref="A287:G287"/>
+    <mergeCell ref="A306:G306"/>
+    <mergeCell ref="A314:G314"/>
+    <mergeCell ref="A286:G286"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A254:G254"/>
+    <mergeCell ref="A253:G253"/>
+    <mergeCell ref="A461:G461"/>
+    <mergeCell ref="A462:G462"/>
+    <mergeCell ref="A452:G452"/>
+    <mergeCell ref="A453:G453"/>
+    <mergeCell ref="A413:G413"/>
+    <mergeCell ref="A435:G435"/>
+    <mergeCell ref="A419:G419"/>
+    <mergeCell ref="A427:G427"/>
+    <mergeCell ref="A370:G370"/>
+    <mergeCell ref="A377:G377"/>
+    <mergeCell ref="A385:G385"/>
+    <mergeCell ref="A392:G392"/>
+    <mergeCell ref="A400:G400"/>
+    <mergeCell ref="A414:G414"/>
+    <mergeCell ref="A420:G420"/>
+    <mergeCell ref="A428:G428"/>
+    <mergeCell ref="A441:G441"/>
+    <mergeCell ref="A442:G442"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/dicionario/dicionario_de_dados.xltx.xlsx
+++ b/database/dicionario/dicionario_de_dados.xltx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="269">
   <si>
     <t>id_cliente</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>topico_sobre_empresa</t>
+  </si>
+  <si>
+    <t>log_funcionario_pac</t>
   </si>
 </sst>
 </file>
@@ -1477,9 +1480,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,6 +1503,9 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,18 +1514,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1867,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G467"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A444" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A466" sqref="A466"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A285" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J299" sqref="J299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,26 +1888,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2148,26 +2151,26 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -2259,26 +2262,26 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2469,26 +2472,26 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -2713,26 +2716,26 @@
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -2805,26 +2808,26 @@
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
@@ -2897,26 +2900,26 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -3103,26 +3106,26 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="18"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="24"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -3195,26 +3198,26 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="18"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -3367,26 +3370,26 @@
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="18"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
@@ -3691,26 +3694,26 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="18"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="24"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3783,26 +3786,26 @@
       <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="18"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="21"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="24"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -3953,26 +3956,26 @@
       <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="18"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="24"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -4045,26 +4048,26 @@
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="18"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="21"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="24"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
@@ -4175,26 +4178,26 @@
       <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="18"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="21"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="24"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="17"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -4326,26 +4329,26 @@
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="16" t="s">
+      <c r="A146" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="18"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="21"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="24"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="17"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
@@ -4418,26 +4421,26 @@
       <c r="G151" s="2"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
+      <c r="A152" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="18"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="21"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="24"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -4550,26 +4553,26 @@
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="s">
+      <c r="A160" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="18"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="21"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="22" t="s">
+      <c r="A161" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B161" s="23"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="24"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="17"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
@@ -4661,26 +4664,26 @@
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="16" t="s">
+      <c r="A167" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="18"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="21"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="22" t="s">
+      <c r="A168" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B168" s="23"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="24"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="17"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
@@ -4753,26 +4756,26 @@
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="18"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="21"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="22" t="s">
+      <c r="A174" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B174" s="23"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="24"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="17"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
@@ -4864,26 +4867,26 @@
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="16" t="s">
+      <c r="A180" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="18"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="21"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="22" t="s">
+      <c r="A181" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B181" s="23"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="24"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="17"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
@@ -4975,26 +4978,26 @@
       <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
-      <c r="G187" s="18"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="21"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="22" t="s">
+      <c r="A188" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="24"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="17"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
@@ -5067,26 +5070,26 @@
       <c r="G192" s="2"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="17"/>
-      <c r="G193" s="18"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="21"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
+      <c r="A194" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B194" s="23"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="23"/>
-      <c r="E194" s="23"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="24"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="17"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
@@ -5159,26 +5162,26 @@
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
-      <c r="G199" s="18"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="21"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
+      <c r="A200" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B200" s="23"/>
-      <c r="C200" s="23"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="24"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="17"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
@@ -5270,26 +5273,26 @@
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="17"/>
-      <c r="G206" s="18"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="21"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="22" t="s">
+      <c r="A207" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B207" s="23"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23"/>
-      <c r="E207" s="23"/>
-      <c r="F207" s="23"/>
-      <c r="G207" s="24"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="16"/>
+      <c r="G207" s="17"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
@@ -5535,26 +5538,26 @@
       <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="16" t="s">
+      <c r="A221" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B221" s="17"/>
-      <c r="C221" s="17"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="17"/>
-      <c r="G221" s="18"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="21"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="22" t="s">
+      <c r="A222" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B222" s="23"/>
-      <c r="C222" s="23"/>
-      <c r="D222" s="23"/>
-      <c r="E222" s="23"/>
-      <c r="F222" s="23"/>
-      <c r="G222" s="24"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="17"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -5703,26 +5706,26 @@
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="16" t="s">
+      <c r="A231" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="17"/>
-      <c r="G231" s="18"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="21"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="22" t="s">
+      <c r="A232" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B232" s="23"/>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="23"/>
-      <c r="G232" s="24"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="17"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
@@ -5795,26 +5798,26 @@
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="16" t="s">
+      <c r="A237" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B237" s="17"/>
-      <c r="C237" s="17"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="18"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="21"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="22" t="s">
+      <c r="A238" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
-      <c r="D238" s="23"/>
-      <c r="E238" s="23"/>
-      <c r="F238" s="23"/>
-      <c r="G238" s="24"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="17"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
@@ -5906,26 +5909,26 @@
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="16" t="s">
+      <c r="A244" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B244" s="17"/>
-      <c r="C244" s="17"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="18"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="21"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="22" t="s">
+      <c r="A245" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B245" s="23"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23"/>
-      <c r="G245" s="24"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="17"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
@@ -6057,26 +6060,26 @@
       <c r="G252" s="2"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="16" t="s">
+      <c r="A253" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="18"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="21"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="22" t="s">
+      <c r="A254" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B254" s="23"/>
-      <c r="C254" s="23"/>
-      <c r="D254" s="23"/>
-      <c r="E254" s="23"/>
-      <c r="F254" s="23"/>
-      <c r="G254" s="24"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="17"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
@@ -6187,26 +6190,26 @@
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="16" t="s">
+      <c r="A261" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B261" s="17"/>
-      <c r="C261" s="17"/>
-      <c r="D261" s="17"/>
-      <c r="E261" s="17"/>
-      <c r="F261" s="17"/>
-      <c r="G261" s="18"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="21"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="22" t="s">
+      <c r="A262" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="23"/>
-      <c r="C262" s="23"/>
-      <c r="D262" s="23"/>
-      <c r="E262" s="23"/>
-      <c r="F262" s="23"/>
-      <c r="G262" s="24"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="17"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
@@ -6336,26 +6339,26 @@
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="16" t="s">
+      <c r="A270" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B270" s="17"/>
-      <c r="C270" s="17"/>
-      <c r="D270" s="17"/>
-      <c r="E270" s="17"/>
-      <c r="F270" s="17"/>
-      <c r="G270" s="18"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="21"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="22" t="s">
+      <c r="A271" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B271" s="23"/>
-      <c r="C271" s="23"/>
-      <c r="D271" s="23"/>
-      <c r="E271" s="23"/>
-      <c r="F271" s="23"/>
-      <c r="G271" s="24"/>
+      <c r="B271" s="16"/>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="17"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
@@ -6468,26 +6471,26 @@
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="16" t="s">
+      <c r="A278" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B278" s="17"/>
-      <c r="C278" s="17"/>
-      <c r="D278" s="17"/>
-      <c r="E278" s="17"/>
-      <c r="F278" s="17"/>
-      <c r="G278" s="18"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="21"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="22" t="s">
+      <c r="A279" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="23"/>
-      <c r="C279" s="23"/>
-      <c r="D279" s="23"/>
-      <c r="E279" s="23"/>
-      <c r="F279" s="23"/>
-      <c r="G279" s="24"/>
+      <c r="B279" s="16"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="17"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
@@ -6598,26 +6601,26 @@
       <c r="G285" s="2"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="16" t="s">
+      <c r="A286" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B286" s="17"/>
-      <c r="C286" s="17"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="18"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="21"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="22" t="s">
+      <c r="A287" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B287" s="23"/>
-      <c r="C287" s="23"/>
-      <c r="D287" s="23"/>
-      <c r="E287" s="23"/>
-      <c r="F287" s="23"/>
-      <c r="G287" s="24"/>
+      <c r="B287" s="16"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="17"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
@@ -6927,82 +6930,84 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="3"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="16" t="s">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G304" s="5"/>
+    </row>
+    <row r="305" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
-      <c r="D305" s="17"/>
-      <c r="E305" s="17"/>
-      <c r="F305" s="17"/>
-      <c r="G305" s="18"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="22" t="s">
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="20"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="21"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B306" s="23"/>
-      <c r="C306" s="23"/>
-      <c r="D306" s="23"/>
-      <c r="E306" s="23"/>
-      <c r="F306" s="23"/>
-      <c r="G306" s="24"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
+      <c r="B307" s="16"/>
+      <c r="C307" s="16"/>
+      <c r="D307" s="16"/>
+      <c r="E307" s="16"/>
+      <c r="F307" s="16"/>
+      <c r="G307" s="17"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B308" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C308" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D307" s="4" t="s">
+      <c r="D308" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E307" s="4" t="s">
+      <c r="E308" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F307" s="4" t="s">
+      <c r="F308" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G307" s="4" t="s">
+      <c r="G308" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F308" s="5"/>
-      <c r="G308" s="5"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>1</v>
@@ -7011,20 +7016,20 @@
         <v>244</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>244</v>
@@ -7033,119 +7038,119 @@
         <v>249</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F310" s="5">
-        <v>0</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F311" s="5">
+        <v>0</v>
+      </c>
+      <c r="G311" s="5"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="B312" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D311" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F311" s="5" t="s">
+      <c r="C312" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F312" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G311" s="5"/>
-    </row>
-    <row r="312" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3"/>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="16" t="s">
+      <c r="G312" s="5"/>
+    </row>
+    <row r="313" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
-      <c r="D313" s="17"/>
-      <c r="E313" s="17"/>
-      <c r="F313" s="17"/>
-      <c r="G313" s="18"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="22" t="s">
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="20"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="21"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B314" s="23"/>
-      <c r="C314" s="23"/>
-      <c r="D314" s="23"/>
-      <c r="E314" s="23"/>
-      <c r="F314" s="23"/>
-      <c r="G314" s="24"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
+      <c r="B315" s="16"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="17"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B316" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C316" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D315" s="4" t="s">
+      <c r="D316" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E315" s="4" t="s">
+      <c r="E316" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F315" s="4" t="s">
+      <c r="F316" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G315" s="4" t="s">
+      <c r="G316" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F316" s="5"/>
-      <c r="G316" s="5"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>249</v>
@@ -7153,82 +7158,82 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="3"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
-      <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="16" t="s">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+    </row>
+    <row r="319" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
-      <c r="D319" s="17"/>
-      <c r="E319" s="17"/>
-      <c r="F319" s="17"/>
-      <c r="G319" s="18"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="22" t="s">
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="20"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="21"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B320" s="23"/>
-      <c r="C320" s="23"/>
-      <c r="D320" s="23"/>
-      <c r="E320" s="23"/>
-      <c r="F320" s="23"/>
-      <c r="G320" s="24"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="4" t="s">
+      <c r="B321" s="16"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="16"/>
+      <c r="G321" s="17"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B322" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C321" s="4" t="s">
+      <c r="C322" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D321" s="4" t="s">
+      <c r="D322" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E321" s="4" t="s">
+      <c r="E322" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F321" s="4" t="s">
+      <c r="F322" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G321" s="4" t="s">
+      <c r="G322" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F322" s="5"/>
-      <c r="G322" s="5"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>1</v>
@@ -7237,20 +7242,20 @@
         <v>244</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>244</v>
@@ -7259,17 +7264,17 @@
         <v>249</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>244</v>
@@ -7285,110 +7290,110 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="B327" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C326" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F326" s="5">
+      <c r="C327" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F327" s="5">
         <v>0</v>
       </c>
-      <c r="G326" s="5"/>
-    </row>
-    <row r="327" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="2"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="16" t="s">
+      <c r="G327" s="5"/>
+    </row>
+    <row r="328" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
-      <c r="D328" s="17"/>
-      <c r="E328" s="17"/>
-      <c r="F328" s="17"/>
-      <c r="G328" s="18"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="22" t="s">
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="20"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="21"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B329" s="23"/>
-      <c r="C329" s="23"/>
-      <c r="D329" s="23"/>
-      <c r="E329" s="23"/>
-      <c r="F329" s="23"/>
-      <c r="G329" s="24"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="4" t="s">
+      <c r="B330" s="16"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="17"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B331" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C330" s="4" t="s">
+      <c r="C331" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D330" s="4" t="s">
+      <c r="D331" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E330" s="4" t="s">
+      <c r="E331" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F330" s="4" t="s">
+      <c r="F331" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G330" s="4" t="s">
+      <c r="G331" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C331" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D331" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F331" s="5"/>
-      <c r="G331" s="5"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>249</v>
@@ -7396,82 +7401,82 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="3"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="16" t="s">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+    </row>
+    <row r="334" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B334" s="17"/>
-      <c r="C334" s="17"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="17"/>
-      <c r="F334" s="17"/>
-      <c r="G334" s="18"/>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="22" t="s">
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="20"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="21"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B335" s="23"/>
-      <c r="C335" s="23"/>
-      <c r="D335" s="23"/>
-      <c r="E335" s="23"/>
-      <c r="F335" s="23"/>
-      <c r="G335" s="24"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
+      <c r="B336" s="16"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="17"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B337" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C336" s="4" t="s">
+      <c r="C337" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D336" s="4" t="s">
+      <c r="D337" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E336" s="4" t="s">
+      <c r="E337" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F336" s="4" t="s">
+      <c r="F337" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G336" s="4" t="s">
+      <c r="G337" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E337" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F337" s="5"/>
-      <c r="G337" s="5"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>1</v>
@@ -7480,20 +7485,20 @@
         <v>244</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>244</v>
@@ -7502,17 +7507,17 @@
         <v>249</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>244</v>
@@ -7528,10 +7533,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>244</v>
@@ -7542,108 +7547,108 @@
       <c r="E341" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F341" s="5">
-        <v>0</v>
-      </c>
+      <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F342" s="5">
+        <v>0</v>
+      </c>
+      <c r="G342" s="5"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B343" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C342" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E342" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F342" s="5" t="s">
+      <c r="C343" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F343" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G342" s="5"/>
-    </row>
-    <row r="343" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="3"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="16" t="s">
+      <c r="G343" s="5"/>
+    </row>
+    <row r="344" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B344" s="17"/>
-      <c r="C344" s="17"/>
-      <c r="D344" s="17"/>
-      <c r="E344" s="17"/>
-      <c r="F344" s="17"/>
-      <c r="G344" s="18"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="22" t="s">
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
+      <c r="D345" s="20"/>
+      <c r="E345" s="20"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="21"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B345" s="23"/>
-      <c r="C345" s="23"/>
-      <c r="D345" s="23"/>
-      <c r="E345" s="23"/>
-      <c r="F345" s="23"/>
-      <c r="G345" s="24"/>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
+      <c r="B346" s="16"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="17"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B347" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C346" s="4" t="s">
+      <c r="C347" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D346" s="4" t="s">
+      <c r="D347" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E346" s="4" t="s">
+      <c r="E347" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F346" s="4" t="s">
+      <c r="F347" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G346" s="4" t="s">
+      <c r="G347" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E347" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F347" s="5"/>
-      <c r="G347" s="5"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>1</v>
@@ -7652,17 +7657,17 @@
         <v>244</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>1</v>
@@ -7674,117 +7679,117 @@
         <v>249</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B351" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C350" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E350" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F350" s="5" t="s">
+      <c r="C351" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F351" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G350" s="5"/>
-    </row>
-    <row r="351" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="3"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="16" t="s">
+      <c r="G351" s="5"/>
+    </row>
+    <row r="352" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="3"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B352" s="17"/>
-      <c r="C352" s="17"/>
-      <c r="D352" s="17"/>
-      <c r="E352" s="17"/>
-      <c r="F352" s="17"/>
-      <c r="G352" s="18"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="22" t="s">
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="20"/>
+      <c r="E353" s="20"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="21"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B353" s="23"/>
-      <c r="C353" s="23"/>
-      <c r="D353" s="23"/>
-      <c r="E353" s="23"/>
-      <c r="F353" s="23"/>
-      <c r="G353" s="24"/>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
+      <c r="B354" s="16"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="17"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B355" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C354" s="4" t="s">
+      <c r="C355" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D354" s="4" t="s">
+      <c r="D355" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E354" s="4" t="s">
+      <c r="E355" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F354" s="4" t="s">
+      <c r="F355" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G354" s="4" t="s">
+      <c r="G355" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D355" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F355" s="5"/>
-      <c r="G355" s="5"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>249</v>
@@ -7794,10 +7799,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>244</v>
@@ -7806,14 +7811,14 @@
         <v>249</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>1</v>
@@ -7832,10 +7837,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>244</v>
@@ -7844,108 +7849,108 @@
         <v>249</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B360" s="5" t="s">
+      <c r="B361" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C360" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D360" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F360" s="5" t="s">
+      <c r="C361" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F361" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G360" s="5"/>
-    </row>
-    <row r="361" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="3"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="16" t="s">
+      <c r="G361" s="5"/>
+    </row>
+    <row r="362" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="3"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B362" s="17"/>
-      <c r="C362" s="17"/>
-      <c r="D362" s="17"/>
-      <c r="E362" s="17"/>
-      <c r="F362" s="17"/>
-      <c r="G362" s="18"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="22" t="s">
+      <c r="B363" s="20"/>
+      <c r="C363" s="20"/>
+      <c r="D363" s="20"/>
+      <c r="E363" s="20"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="21"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B363" s="23"/>
-      <c r="C363" s="23"/>
-      <c r="D363" s="23"/>
-      <c r="E363" s="23"/>
-      <c r="F363" s="23"/>
-      <c r="G363" s="24"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
+      <c r="B364" s="16"/>
+      <c r="C364" s="16"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
+      <c r="G364" s="17"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B365" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C364" s="4" t="s">
+      <c r="C365" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D364" s="4" t="s">
+      <c r="D365" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E364" s="4" t="s">
+      <c r="E365" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F364" s="4" t="s">
+      <c r="F365" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G364" s="4" t="s">
+      <c r="G365" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B365" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D365" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E365" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F365" s="5"/>
-      <c r="G365" s="5"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>1</v>
@@ -7954,17 +7959,17 @@
         <v>244</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>1</v>
@@ -7983,101 +7988,101 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B369" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C368" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E368" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F368" s="5" t="s">
+      <c r="C369" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F369" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G368" s="5"/>
-    </row>
-    <row r="369" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="3"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="19" t="s">
+      <c r="G369" s="5"/>
+    </row>
+    <row r="370" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B370" s="20"/>
-      <c r="C370" s="20"/>
-      <c r="D370" s="20"/>
-      <c r="E370" s="20"/>
-      <c r="F370" s="20"/>
-      <c r="G370" s="21"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="22" t="s">
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="24"/>
+      <c r="E371" s="24"/>
+      <c r="F371" s="24"/>
+      <c r="G371" s="25"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B371" s="23"/>
-      <c r="C371" s="23"/>
-      <c r="D371" s="23"/>
-      <c r="E371" s="23"/>
-      <c r="F371" s="23"/>
-      <c r="G371" s="24"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="4" t="s">
+      <c r="B372" s="16"/>
+      <c r="C372" s="16"/>
+      <c r="D372" s="16"/>
+      <c r="E372" s="16"/>
+      <c r="F372" s="16"/>
+      <c r="G372" s="17"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B372" s="4" t="s">
+      <c r="B373" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C372" s="4" t="s">
+      <c r="C373" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D372" s="4" t="s">
+      <c r="D373" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E372" s="4" t="s">
+      <c r="E373" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F372" s="4" t="s">
+      <c r="F373" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G372" s="4" t="s">
+      <c r="G373" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D373" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E373" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F373" s="5"/>
-      <c r="G373" s="5"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>1</v>
@@ -8086,20 +8091,20 @@
         <v>244</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>244</v>
@@ -8108,87 +8113,87 @@
         <v>249</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="3"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="19" t="s">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+    </row>
+    <row r="377" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B377" s="20"/>
-      <c r="C377" s="20"/>
-      <c r="D377" s="20"/>
-      <c r="E377" s="20"/>
-      <c r="F377" s="20"/>
-      <c r="G377" s="21"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="22" t="s">
+      <c r="B378" s="24"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="24"/>
+      <c r="E378" s="24"/>
+      <c r="F378" s="24"/>
+      <c r="G378" s="25"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B378" s="23"/>
-      <c r="C378" s="23"/>
-      <c r="D378" s="23"/>
-      <c r="E378" s="23"/>
-      <c r="F378" s="23"/>
-      <c r="G378" s="24"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="4" t="s">
+      <c r="B379" s="16"/>
+      <c r="C379" s="16"/>
+      <c r="D379" s="16"/>
+      <c r="E379" s="16"/>
+      <c r="F379" s="16"/>
+      <c r="G379" s="17"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B379" s="4" t="s">
+      <c r="B380" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C379" s="4" t="s">
+      <c r="C380" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D379" s="4" t="s">
+      <c r="D380" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E379" s="4" t="s">
+      <c r="E380" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F379" s="4" t="s">
+      <c r="F380" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G379" s="4" t="s">
+      <c r="G380" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D380" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F380" s="5"/>
-      <c r="G380" s="5"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>1</v>
@@ -8197,20 +8202,20 @@
         <v>244</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F381" s="5"/>
       <c r="G381" s="5"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>244</v>
@@ -8219,108 +8224,108 @@
         <v>249</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F382" s="5"/>
       <c r="G382" s="5"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="B384" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C383" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D383" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E383" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F383" s="5">
-        <v>1</v>
-      </c>
-      <c r="G383" s="5"/>
-    </row>
-    <row r="384" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="3"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="16" t="s">
+      <c r="C384" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F384" s="5">
+        <v>1</v>
+      </c>
+      <c r="G384" s="5"/>
+    </row>
+    <row r="385" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
-      <c r="D385" s="17"/>
-      <c r="E385" s="17"/>
-      <c r="F385" s="17"/>
-      <c r="G385" s="18"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="22" t="s">
+      <c r="B386" s="20"/>
+      <c r="C386" s="20"/>
+      <c r="D386" s="20"/>
+      <c r="E386" s="20"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="21"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B386" s="23"/>
-      <c r="C386" s="23"/>
-      <c r="D386" s="23"/>
-      <c r="E386" s="23"/>
-      <c r="F386" s="23"/>
-      <c r="G386" s="24"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
+      <c r="B387" s="16"/>
+      <c r="C387" s="16"/>
+      <c r="D387" s="16"/>
+      <c r="E387" s="16"/>
+      <c r="F387" s="16"/>
+      <c r="G387" s="17"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B387" s="4" t="s">
+      <c r="B388" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C387" s="4" t="s">
+      <c r="C388" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D387" s="4" t="s">
+      <c r="D388" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E387" s="4" t="s">
+      <c r="E388" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F387" s="4" t="s">
+      <c r="F388" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G387" s="4" t="s">
+      <c r="G388" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B388" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D388" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F388" s="5"/>
-      <c r="G388" s="5"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>1</v>
@@ -8329,20 +8334,20 @@
         <v>244</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F389" s="5"/>
       <c r="G389" s="5"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>244</v>
@@ -8351,87 +8356,87 @@
         <v>249</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F390" s="5"/>
       <c r="G390" s="5"/>
     </row>
-    <row r="391" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="3"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="16" t="s">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+    </row>
+    <row r="392" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="3"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B392" s="17"/>
-      <c r="C392" s="17"/>
-      <c r="D392" s="17"/>
-      <c r="E392" s="17"/>
-      <c r="F392" s="17"/>
-      <c r="G392" s="18"/>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="22" t="s">
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
+      <c r="D393" s="20"/>
+      <c r="E393" s="20"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="21"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B393" s="23"/>
-      <c r="C393" s="23"/>
-      <c r="D393" s="23"/>
-      <c r="E393" s="23"/>
-      <c r="F393" s="23"/>
-      <c r="G393" s="24"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="4" t="s">
+      <c r="B394" s="16"/>
+      <c r="C394" s="16"/>
+      <c r="D394" s="16"/>
+      <c r="E394" s="16"/>
+      <c r="F394" s="16"/>
+      <c r="G394" s="17"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B395" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C394" s="4" t="s">
+      <c r="C395" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D394" s="4" t="s">
+      <c r="D395" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E394" s="4" t="s">
+      <c r="E395" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F394" s="4" t="s">
+      <c r="F395" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G394" s="4" t="s">
+      <c r="G395" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C395" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D395" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E395" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F395" s="5"/>
-      <c r="G395" s="5"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>1</v>
@@ -8440,20 +8445,20 @@
         <v>244</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F396" s="5"/>
       <c r="G396" s="5"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>244</v>
@@ -8462,117 +8467,117 @@
         <v>249</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F397" s="5"/>
       <c r="G397" s="5"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="B399" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C398" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D398" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E398" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F398" s="5" t="s">
+      <c r="C399" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F399" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G398" s="5"/>
-    </row>
-    <row r="399" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="3"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="16" t="s">
+      <c r="G399" s="5"/>
+    </row>
+    <row r="400" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="3"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B400" s="17"/>
-      <c r="C400" s="17"/>
-      <c r="D400" s="17"/>
-      <c r="E400" s="17"/>
-      <c r="F400" s="17"/>
-      <c r="G400" s="18"/>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="22" t="s">
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+      <c r="D401" s="20"/>
+      <c r="E401" s="20"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="21"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B401" s="23"/>
-      <c r="C401" s="23"/>
-      <c r="D401" s="23"/>
-      <c r="E401" s="23"/>
-      <c r="F401" s="23"/>
-      <c r="G401" s="24"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="4" t="s">
+      <c r="B402" s="16"/>
+      <c r="C402" s="16"/>
+      <c r="D402" s="16"/>
+      <c r="E402" s="16"/>
+      <c r="F402" s="16"/>
+      <c r="G402" s="17"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B402" s="4" t="s">
+      <c r="B403" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C402" s="4" t="s">
+      <c r="C403" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D402" s="4" t="s">
+      <c r="D403" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E402" s="4" t="s">
+      <c r="E403" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F402" s="4" t="s">
+      <c r="F403" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G402" s="4" t="s">
+      <c r="G403" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D403" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E403" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F403" s="5"/>
-      <c r="G403" s="5"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>249</v>
@@ -8580,82 +8585,82 @@
       <c r="F404" s="5"/>
       <c r="G404" s="5"/>
     </row>
-    <row r="405" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="3"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
-      <c r="G405" s="2"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="16" t="s">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+    </row>
+    <row r="406" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="3"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B406" s="17"/>
-      <c r="C406" s="17"/>
-      <c r="D406" s="17"/>
-      <c r="E406" s="17"/>
-      <c r="F406" s="17"/>
-      <c r="G406" s="18"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="22" t="s">
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
+      <c r="D407" s="20"/>
+      <c r="E407" s="20"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="21"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B407" s="23"/>
-      <c r="C407" s="23"/>
-      <c r="D407" s="23"/>
-      <c r="E407" s="23"/>
-      <c r="F407" s="23"/>
-      <c r="G407" s="24"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="4" t="s">
+      <c r="B408" s="16"/>
+      <c r="C408" s="16"/>
+      <c r="D408" s="16"/>
+      <c r="E408" s="16"/>
+      <c r="F408" s="16"/>
+      <c r="G408" s="17"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B409" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C408" s="4" t="s">
+      <c r="C409" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D408" s="4" t="s">
+      <c r="D409" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E408" s="4" t="s">
+      <c r="E409" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F408" s="4" t="s">
+      <c r="F409" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G408" s="4" t="s">
+      <c r="G409" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C409" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D409" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E409" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>1</v>
@@ -8664,17 +8669,17 @@
         <v>244</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E410" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F410" s="5"/>
       <c r="G410" s="5"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>1</v>
@@ -8691,91 +8696,91 @@
       <c r="F411" s="5"/>
       <c r="G411" s="5"/>
     </row>
-    <row r="412" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="3"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="16" t="s">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+    </row>
+    <row r="413" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="3"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B413" s="17"/>
-      <c r="C413" s="17"/>
-      <c r="D413" s="17"/>
-      <c r="E413" s="17"/>
-      <c r="F413" s="17"/>
-      <c r="G413" s="18"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="22" t="s">
+      <c r="B414" s="20"/>
+      <c r="C414" s="20"/>
+      <c r="D414" s="20"/>
+      <c r="E414" s="20"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="21"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B414" s="23"/>
-      <c r="C414" s="23"/>
-      <c r="D414" s="23"/>
-      <c r="E414" s="23"/>
-      <c r="F414" s="23"/>
-      <c r="G414" s="24"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="4" t="s">
+      <c r="B415" s="16"/>
+      <c r="C415" s="16"/>
+      <c r="D415" s="16"/>
+      <c r="E415" s="16"/>
+      <c r="F415" s="16"/>
+      <c r="G415" s="17"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B416" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="C416" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D415" s="4" t="s">
+      <c r="D416" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E415" s="4" t="s">
+      <c r="E416" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F415" s="4" t="s">
+      <c r="F416" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G415" s="4" t="s">
+      <c r="G416" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C416" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D416" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E416" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F416" s="5"/>
-      <c r="G416" s="5"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E417" s="5" t="s">
         <v>249</v>
@@ -8783,82 +8788,82 @@
       <c r="F417" s="5"/>
       <c r="G417" s="5"/>
     </row>
-    <row r="418" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="3"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="16" t="s">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+    </row>
+    <row r="419" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="3"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="B419" s="17"/>
-      <c r="C419" s="17"/>
-      <c r="D419" s="17"/>
-      <c r="E419" s="17"/>
-      <c r="F419" s="17"/>
-      <c r="G419" s="18"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="22" t="s">
+      <c r="B420" s="20"/>
+      <c r="C420" s="20"/>
+      <c r="D420" s="20"/>
+      <c r="E420" s="20"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="21"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B420" s="23"/>
-      <c r="C420" s="23"/>
-      <c r="D420" s="23"/>
-      <c r="E420" s="23"/>
-      <c r="F420" s="23"/>
-      <c r="G420" s="24"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
+      <c r="B421" s="16"/>
+      <c r="C421" s="16"/>
+      <c r="D421" s="16"/>
+      <c r="E421" s="16"/>
+      <c r="F421" s="16"/>
+      <c r="G421" s="17"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="B422" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="C422" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D421" s="4" t="s">
+      <c r="D422" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E421" s="4" t="s">
+      <c r="E422" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F421" s="4" t="s">
+      <c r="F422" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G421" s="4" t="s">
+      <c r="G422" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C422" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D422" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E422" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F422" s="5"/>
-      <c r="G422" s="5"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>1</v>
@@ -8867,20 +8872,20 @@
         <v>244</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F423" s="5"/>
       <c r="G423" s="5"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>244</v>
@@ -8889,108 +8894,108 @@
         <v>249</v>
       </c>
       <c r="E424" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F424" s="5"/>
       <c r="G424" s="5"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B426" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C425" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D425" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E425" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F425" s="5">
+      <c r="C426" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F426" s="5">
         <v>0</v>
       </c>
-      <c r="G425" s="5"/>
-    </row>
-    <row r="426" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="3"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="16" t="s">
+      <c r="G426" s="5"/>
+    </row>
+    <row r="427" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="3"/>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B427" s="17"/>
-      <c r="C427" s="17"/>
-      <c r="D427" s="17"/>
-      <c r="E427" s="17"/>
-      <c r="F427" s="17"/>
-      <c r="G427" s="18"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="22" t="s">
+      <c r="B428" s="20"/>
+      <c r="C428" s="20"/>
+      <c r="D428" s="20"/>
+      <c r="E428" s="20"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="21"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B428" s="23"/>
-      <c r="C428" s="23"/>
-      <c r="D428" s="23"/>
-      <c r="E428" s="23"/>
-      <c r="F428" s="23"/>
-      <c r="G428" s="24"/>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
+      <c r="B429" s="16"/>
+      <c r="C429" s="16"/>
+      <c r="D429" s="16"/>
+      <c r="E429" s="16"/>
+      <c r="F429" s="16"/>
+      <c r="G429" s="17"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B430" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C429" s="4" t="s">
+      <c r="C430" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D429" s="4" t="s">
+      <c r="D430" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E429" s="4" t="s">
+      <c r="E430" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F429" s="4" t="s">
+      <c r="F430" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G429" s="4" t="s">
+      <c r="G430" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D430" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E430" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F430" s="5"/>
-      <c r="G430" s="5"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B431" s="5" t="s">
         <v>1</v>
@@ -8999,20 +9004,20 @@
         <v>244</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F431" s="5"/>
       <c r="G431" s="5"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>244</v>
@@ -9021,117 +9026,117 @@
         <v>249</v>
       </c>
       <c r="E432" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F432" s="5"/>
       <c r="G432" s="5"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="B434" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C433" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D433" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E433" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F433" s="5">
+      <c r="C434" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F434" s="5">
         <v>0</v>
       </c>
-      <c r="G433" s="5"/>
-    </row>
-    <row r="434" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="3"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="16" t="s">
+      <c r="G434" s="5"/>
+    </row>
+    <row r="435" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="3"/>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B435" s="17"/>
-      <c r="C435" s="17"/>
-      <c r="D435" s="17"/>
-      <c r="E435" s="17"/>
-      <c r="F435" s="17"/>
-      <c r="G435" s="18"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="22" t="s">
+      <c r="B436" s="20"/>
+      <c r="C436" s="20"/>
+      <c r="D436" s="20"/>
+      <c r="E436" s="20"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="21"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B436" s="23"/>
-      <c r="C436" s="23"/>
-      <c r="D436" s="23"/>
-      <c r="E436" s="23"/>
-      <c r="F436" s="23"/>
-      <c r="G436" s="24"/>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
+      <c r="B437" s="16"/>
+      <c r="C437" s="16"/>
+      <c r="D437" s="16"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="16"/>
+      <c r="G437" s="17"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B437" s="4" t="s">
+      <c r="B438" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C437" s="4" t="s">
+      <c r="C438" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D437" s="4" t="s">
+      <c r="D438" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E437" s="4" t="s">
+      <c r="E438" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F437" s="4" t="s">
+      <c r="F438" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G437" s="4" t="s">
+      <c r="G438" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B438" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D438" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E438" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F438" s="5"/>
-      <c r="G438" s="5"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>244</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E439" s="5" t="s">
         <v>249</v>
@@ -9139,73 +9144,73 @@
       <c r="F439" s="5"/>
       <c r="G439" s="5"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="14" t="s">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B441" s="15"/>
-      <c r="C441" s="15"/>
-      <c r="D441" s="15"/>
-      <c r="E441" s="15"/>
-      <c r="F441" s="15"/>
-      <c r="G441" s="15"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="14" t="s">
+      <c r="B442" s="22"/>
+      <c r="C442" s="22"/>
+      <c r="D442" s="22"/>
+      <c r="E442" s="22"/>
+      <c r="F442" s="22"/>
+      <c r="G442" s="22"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B442" s="14"/>
-      <c r="C442" s="14"/>
-      <c r="D442" s="14"/>
-      <c r="E442" s="14"/>
-      <c r="F442" s="14"/>
-      <c r="G442" s="14"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="8" t="s">
+      <c r="B443" s="18"/>
+      <c r="C443" s="18"/>
+      <c r="D443" s="18"/>
+      <c r="E443" s="18"/>
+      <c r="F443" s="18"/>
+      <c r="G443" s="18"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B444" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C443" s="8" t="s">
+      <c r="C444" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D443" s="8" t="s">
+      <c r="D444" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E443" s="8" t="s">
+      <c r="E444" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F443" s="8" t="s">
+      <c r="F444" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G443" s="8" t="s">
+      <c r="G444" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B444" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C444" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D444" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E444" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F444" s="10"/>
-      <c r="G444" s="10"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B445" s="9" t="s">
         <v>1</v>
@@ -9214,17 +9219,17 @@
         <v>252</v>
       </c>
       <c r="D445" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F445" s="10"/>
       <c r="G445" s="10"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B446" s="9" t="s">
         <v>1</v>
@@ -9243,10 +9248,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="C447" s="9" t="s">
         <v>252</v>
@@ -9255,19 +9260,19 @@
         <v>249</v>
       </c>
       <c r="E447" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F447" s="10"/>
       <c r="G447" s="10"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C448" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C448" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D448" s="9" t="s">
@@ -9281,12 +9286,12 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B449" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C449" s="9" t="s">
+      <c r="C449" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D449" s="9" t="s">
@@ -9300,92 +9305,92 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B450" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C450" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E450" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F450" s="10"/>
+      <c r="G450" s="10"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B451" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C450" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D450" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E450" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F450" s="5" t="s">
+      <c r="C451" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E451" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F451" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G450" s="10"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="14" t="s">
+      <c r="G451" s="10"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B452" s="15"/>
-      <c r="C452" s="15"/>
-      <c r="D452" s="15"/>
-      <c r="E452" s="15"/>
-      <c r="F452" s="15"/>
-      <c r="G452" s="15"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="14" t="s">
+      <c r="B453" s="22"/>
+      <c r="C453" s="22"/>
+      <c r="D453" s="22"/>
+      <c r="E453" s="22"/>
+      <c r="F453" s="22"/>
+      <c r="G453" s="22"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B453" s="14"/>
-      <c r="C453" s="14"/>
-      <c r="D453" s="14"/>
-      <c r="E453" s="14"/>
-      <c r="F453" s="14"/>
-      <c r="G453" s="14"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="8" t="s">
+      <c r="B454" s="18"/>
+      <c r="C454" s="18"/>
+      <c r="D454" s="18"/>
+      <c r="E454" s="18"/>
+      <c r="F454" s="18"/>
+      <c r="G454" s="18"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B455" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C454" s="8" t="s">
+      <c r="C455" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D454" s="8" t="s">
+      <c r="D455" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E454" s="8" t="s">
+      <c r="E455" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F454" s="8" t="s">
+      <c r="F455" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G454" s="8" t="s">
+      <c r="G455" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B455" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C455" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D455" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E455" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F455" s="10"/>
-      <c r="G455" s="10"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B456" s="9" t="s">
         <v>1</v>
@@ -9394,20 +9399,20 @@
         <v>252</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E456" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F456" s="9"/>
-      <c r="G456" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="F456" s="10"/>
+      <c r="G456" s="10"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="C457" s="9" t="s">
         <v>252</v>
@@ -9416,17 +9421,17 @@
         <v>249</v>
       </c>
       <c r="E457" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F457" s="10"/>
-      <c r="G457" s="10"/>
+        <v>252</v>
+      </c>
+      <c r="F457" s="9"/>
+      <c r="G457" s="9"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C458" s="9" t="s">
         <v>252</v>
@@ -9441,13 +9446,23 @@
       <c r="G458" s="10"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="12"/>
-      <c r="B459" s="12"/>
-      <c r="C459" s="12"/>
-      <c r="D459" s="12"/>
-      <c r="E459" s="12"/>
-      <c r="F459" s="12"/>
-      <c r="G459" s="12"/>
+      <c r="A459" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D459" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E459" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F459" s="10"/>
+      <c r="G459" s="10"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
@@ -9455,85 +9470,75 @@
       <c r="C460" s="12"/>
       <c r="D460" s="12"/>
       <c r="E460" s="12"/>
-      <c r="F460" s="13"/>
-      <c r="G460" s="13"/>
+      <c r="F460" s="12"/>
+      <c r="G460" s="12"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="14" t="s">
+      <c r="A461" s="12"/>
+      <c r="B461" s="12"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
+      <c r="F461" s="13"/>
+      <c r="G461" s="13"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B461" s="15"/>
-      <c r="C461" s="15"/>
-      <c r="D461" s="15"/>
-      <c r="E461" s="15"/>
-      <c r="F461" s="15"/>
-      <c r="G461" s="15"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="16" t="s">
+      <c r="B462" s="22"/>
+      <c r="C462" s="22"/>
+      <c r="D462" s="22"/>
+      <c r="E462" s="22"/>
+      <c r="F462" s="22"/>
+      <c r="G462" s="22"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B462" s="17"/>
-      <c r="C462" s="17"/>
-      <c r="D462" s="17"/>
-      <c r="E462" s="17"/>
-      <c r="F462" s="17"/>
-      <c r="G462" s="18"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="8" t="s">
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
+      <c r="D463" s="20"/>
+      <c r="E463" s="20"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="21"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B464" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C463" s="8" t="s">
+      <c r="C464" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D463" s="8" t="s">
+      <c r="D464" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E463" s="8" t="s">
+      <c r="E464" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F463" s="8" t="s">
+      <c r="F464" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G463" s="8" t="s">
+      <c r="G464" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B464" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C464" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D464" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E464" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F464" s="10"/>
-      <c r="G464" s="10"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C465" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D465" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E465" s="9" t="s">
         <v>249</v>
@@ -9542,25 +9547,130 @@
       <c r="G465" s="10"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="12"/>
-      <c r="B466" s="12"/>
-      <c r="C466" s="12"/>
-      <c r="D466" s="12"/>
-      <c r="E466" s="12"/>
-      <c r="F466" s="13"/>
-      <c r="G466" s="13"/>
+      <c r="A466" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B466" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D466" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E466" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F466" s="10"/>
+      <c r="G466" s="10"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="13"/>
-      <c r="B467" s="13"/>
-      <c r="C467" s="13"/>
-      <c r="D467" s="13"/>
-      <c r="E467" s="13"/>
+      <c r="A467" s="12"/>
+      <c r="B467" s="12"/>
+      <c r="C467" s="12"/>
+      <c r="D467" s="12"/>
+      <c r="E467" s="12"/>
       <c r="F467" s="13"/>
       <c r="G467" s="13"/>
     </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="13"/>
+      <c r="B468" s="13"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="13"/>
+      <c r="E468" s="13"/>
+      <c r="F468" s="13"/>
+      <c r="G468" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A462:G462"/>
+    <mergeCell ref="A463:G463"/>
+    <mergeCell ref="A453:G453"/>
+    <mergeCell ref="A454:G454"/>
+    <mergeCell ref="A414:G414"/>
+    <mergeCell ref="A436:G436"/>
+    <mergeCell ref="A420:G420"/>
+    <mergeCell ref="A428:G428"/>
+    <mergeCell ref="A371:G371"/>
+    <mergeCell ref="A378:G378"/>
+    <mergeCell ref="A386:G386"/>
+    <mergeCell ref="A393:G393"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="A415:G415"/>
+    <mergeCell ref="A421:G421"/>
+    <mergeCell ref="A429:G429"/>
+    <mergeCell ref="A442:G442"/>
+    <mergeCell ref="A443:G443"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A261:G261"/>
+    <mergeCell ref="A270:G270"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A306:G306"/>
+    <mergeCell ref="A335:G335"/>
+    <mergeCell ref="A329:G329"/>
+    <mergeCell ref="A314:G314"/>
+    <mergeCell ref="A320:G320"/>
+    <mergeCell ref="A206:G206"/>
+    <mergeCell ref="A262:G262"/>
+    <mergeCell ref="A271:G271"/>
+    <mergeCell ref="A279:G279"/>
+    <mergeCell ref="A287:G287"/>
+    <mergeCell ref="A307:G307"/>
+    <mergeCell ref="A315:G315"/>
+    <mergeCell ref="A286:G286"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A254:G254"/>
+    <mergeCell ref="A253:G253"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A152:G152"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="A221:G221"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A237:G237"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A207:G207"/>
+    <mergeCell ref="A222:G222"/>
+    <mergeCell ref="A232:G232"/>
+    <mergeCell ref="A238:G238"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A174:G174"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A437:G437"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A372:G372"/>
+    <mergeCell ref="A379:G379"/>
+    <mergeCell ref="A387:G387"/>
+    <mergeCell ref="A394:G394"/>
+    <mergeCell ref="A402:G402"/>
+    <mergeCell ref="A408:G408"/>
+    <mergeCell ref="A407:G407"/>
+    <mergeCell ref="A321:G321"/>
+    <mergeCell ref="A330:G330"/>
+    <mergeCell ref="A336:G336"/>
+    <mergeCell ref="A346:G346"/>
+    <mergeCell ref="A354:G354"/>
+    <mergeCell ref="A364:G364"/>
+    <mergeCell ref="A345:G345"/>
+    <mergeCell ref="A363:G363"/>
+    <mergeCell ref="A353:G353"/>
+    <mergeCell ref="A107:G107"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A24:G24"/>
@@ -9585,92 +9695,6 @@
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A137:G137"/>
     <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A436:G436"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A371:G371"/>
-    <mergeCell ref="A378:G378"/>
-    <mergeCell ref="A386:G386"/>
-    <mergeCell ref="A393:G393"/>
-    <mergeCell ref="A401:G401"/>
-    <mergeCell ref="A407:G407"/>
-    <mergeCell ref="A406:G406"/>
-    <mergeCell ref="A320:G320"/>
-    <mergeCell ref="A329:G329"/>
-    <mergeCell ref="A335:G335"/>
-    <mergeCell ref="A345:G345"/>
-    <mergeCell ref="A353:G353"/>
-    <mergeCell ref="A363:G363"/>
-    <mergeCell ref="A344:G344"/>
-    <mergeCell ref="A362:G362"/>
-    <mergeCell ref="A352:G352"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A161:G161"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="A152:G152"/>
-    <mergeCell ref="A199:G199"/>
-    <mergeCell ref="A221:G221"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A244:G244"/>
-    <mergeCell ref="A237:G237"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A187:G187"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A207:G207"/>
-    <mergeCell ref="A222:G222"/>
-    <mergeCell ref="A232:G232"/>
-    <mergeCell ref="A238:G238"/>
-    <mergeCell ref="A168:G168"/>
-    <mergeCell ref="A174:G174"/>
-    <mergeCell ref="A181:G181"/>
-    <mergeCell ref="A188:G188"/>
-    <mergeCell ref="A194:G194"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A261:G261"/>
-    <mergeCell ref="A270:G270"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A334:G334"/>
-    <mergeCell ref="A328:G328"/>
-    <mergeCell ref="A313:G313"/>
-    <mergeCell ref="A319:G319"/>
-    <mergeCell ref="A206:G206"/>
-    <mergeCell ref="A262:G262"/>
-    <mergeCell ref="A271:G271"/>
-    <mergeCell ref="A279:G279"/>
-    <mergeCell ref="A287:G287"/>
-    <mergeCell ref="A306:G306"/>
-    <mergeCell ref="A314:G314"/>
-    <mergeCell ref="A286:G286"/>
-    <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A254:G254"/>
-    <mergeCell ref="A253:G253"/>
-    <mergeCell ref="A461:G461"/>
-    <mergeCell ref="A462:G462"/>
-    <mergeCell ref="A452:G452"/>
-    <mergeCell ref="A453:G453"/>
-    <mergeCell ref="A413:G413"/>
-    <mergeCell ref="A435:G435"/>
-    <mergeCell ref="A419:G419"/>
-    <mergeCell ref="A427:G427"/>
-    <mergeCell ref="A370:G370"/>
-    <mergeCell ref="A377:G377"/>
-    <mergeCell ref="A385:G385"/>
-    <mergeCell ref="A392:G392"/>
-    <mergeCell ref="A400:G400"/>
-    <mergeCell ref="A414:G414"/>
-    <mergeCell ref="A420:G420"/>
-    <mergeCell ref="A428:G428"/>
-    <mergeCell ref="A441:G441"/>
-    <mergeCell ref="A442:G442"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
